--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{508E8880-E1B9-4449-9A96-0CEA49ECD046}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="730">
   <si>
     <t>knr</t>
   </si>
@@ -2217,6 +2217,9 @@
   </si>
   <si>
     <t>Os</t>
+  </si>
+  <si>
+    <t>ukjent</t>
   </si>
 </sst>
 </file>
@@ -2266,7 +2269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2397,12 +2400,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2426,6 +2477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,8 +2737,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5ED600C-6F80-4368-A9FB-A67AD1DF9EC2}" name="Tabell1" displayName="Tabell1" ref="A1:E357" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
-  <autoFilter ref="A1:E357" xr:uid="{3018CA22-E830-4562-A59C-3ECEF7AFCA75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5ED600C-6F80-4368-A9FB-A67AD1DF9EC2}" name="Tabell1" displayName="Tabell1" ref="A1:E358" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A1:E358" xr:uid="{3018CA22-E830-4562-A59C-3ECEF7AFCA75}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E357">
     <sortCondition ref="A1:A357"/>
   </sortState>
@@ -2995,20 +3050,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5E9789-F76B-4011-96B4-AC897B28298C}">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3080,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
@@ -3059,7 +3114,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -3076,7 +3131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
@@ -3093,7 +3148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -3110,7 +3165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
@@ -3127,7 +3182,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>371</v>
       </c>
@@ -3144,7 +3199,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>252</v>
       </c>
@@ -3161,7 +3216,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>160</v>
       </c>
@@ -3178,7 +3233,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -3195,7 +3250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>91</v>
       </c>
@@ -3212,7 +3267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
@@ -3229,7 +3284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -3246,7 +3301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -3263,7 +3318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>226</v>
       </c>
@@ -3280,7 +3335,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>576</v>
       </c>
@@ -3297,7 +3352,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>584</v>
       </c>
@@ -3314,7 +3369,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>385</v>
       </c>
@@ -3331,7 +3386,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>595</v>
       </c>
@@ -3348,7 +3403,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>377</v>
       </c>
@@ -3365,7 +3420,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>206</v>
       </c>
@@ -3382,7 +3437,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>170</v>
       </c>
@@ -3399,7 +3454,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>711</v>
       </c>
@@ -3416,7 +3471,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>344</v>
       </c>
@@ -3433,7 +3488,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>172</v>
       </c>
@@ -3450,7 +3505,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>200</v>
       </c>
@@ -3467,7 +3522,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>151</v>
       </c>
@@ -3484,7 +3539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>568</v>
       </c>
@@ -3501,7 +3556,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>509</v>
       </c>
@@ -3518,7 +3573,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>302</v>
       </c>
@@ -3535,7 +3590,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>220</v>
       </c>
@@ -3552,7 +3607,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>258</v>
       </c>
@@ -3569,7 +3624,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>222</v>
       </c>
@@ -3586,7 +3641,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>375</v>
       </c>
@@ -3603,7 +3658,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>274</v>
       </c>
@@ -3620,7 +3675,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>196</v>
       </c>
@@ -3637,7 +3692,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>228</v>
       </c>
@@ -3654,7 +3709,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>348</v>
       </c>
@@ -3671,7 +3726,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>393</v>
       </c>
@@ -3688,7 +3743,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>409</v>
       </c>
@@ -3705,7 +3760,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>389</v>
       </c>
@@ -3722,7 +3777,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>469</v>
       </c>
@@ -3739,7 +3794,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>483</v>
       </c>
@@ -3756,7 +3811,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>363</v>
       </c>
@@ -3773,7 +3828,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>431</v>
       </c>
@@ -3790,7 +3845,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>647</v>
       </c>
@@ -3807,7 +3862,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>613</v>
       </c>
@@ -3824,7 +3879,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -3841,7 +3896,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>501</v>
       </c>
@@ -3858,7 +3913,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>340</v>
       </c>
@@ -3875,7 +3930,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>137</v>
       </c>
@@ -3892,7 +3947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>278</v>
       </c>
@@ -3909,7 +3964,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>673</v>
       </c>
@@ -3926,7 +3981,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>599</v>
       </c>
@@ -3943,7 +3998,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>407</v>
       </c>
@@ -3960,7 +4015,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>691</v>
       </c>
@@ -3977,7 +4032,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>697</v>
       </c>
@@ -3994,7 +4049,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>637</v>
       </c>
@@ -4011,7 +4066,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>316</v>
       </c>
@@ -4028,7 +4083,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>505</v>
       </c>
@@ -4045,7 +4100,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>260</v>
       </c>
@@ -4062,7 +4117,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>625</v>
       </c>
@@ -4079,7 +4134,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>649</v>
       </c>
@@ -4096,7 +4151,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>671</v>
       </c>
@@ -4113,7 +4168,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>611</v>
       </c>
@@ -4130,7 +4185,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>497</v>
       </c>
@@ -4147,7 +4202,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>230</v>
       </c>
@@ -4164,7 +4219,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>703</v>
       </c>
@@ -4181,7 +4236,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>709</v>
       </c>
@@ -4198,7 +4253,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>707</v>
       </c>
@@ -4215,7 +4270,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>615</v>
       </c>
@@ -4232,7 +4287,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>627</v>
       </c>
@@ -4249,7 +4304,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>655</v>
       </c>
@@ -4266,7 +4321,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>427</v>
       </c>
@@ -4283,7 +4338,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>294</v>
       </c>
@@ -4300,7 +4355,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>520</v>
       </c>
@@ -4317,7 +4372,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>683</v>
       </c>
@@ -4334,7 +4389,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>522</v>
       </c>
@@ -4351,7 +4406,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>550</v>
       </c>
@@ -4368,7 +4423,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>695</v>
       </c>
@@ -4385,7 +4440,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>689</v>
       </c>
@@ -4402,7 +4457,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>572</v>
       </c>
@@ -4419,7 +4474,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>373</v>
       </c>
@@ -4436,7 +4491,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>318</v>
       </c>
@@ -4453,7 +4508,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>421</v>
       </c>
@@ -4470,7 +4525,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>588</v>
       </c>
@@ -4487,7 +4542,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>447</v>
       </c>
@@ -4504,7 +4559,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>290</v>
       </c>
@@ -4521,7 +4576,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>580</v>
       </c>
@@ -4538,7 +4593,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>653</v>
       </c>
@@ -4555,7 +4610,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>685</v>
       </c>
@@ -4572,7 +4627,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>71</v>
       </c>
@@ -4589,7 +4644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>22</v>
       </c>
@@ -4606,7 +4661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>44</v>
       </c>
@@ -4623,7 +4678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>50</v>
       </c>
@@ -4640,7 +4695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
@@ -4657,7 +4712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>77</v>
       </c>
@@ -4674,7 +4729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>87</v>
       </c>
@@ -4691,7 +4746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>204</v>
       </c>
@@ -4708,7 +4763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>312</v>
       </c>
@@ -4725,7 +4780,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>184</v>
       </c>
@@ -4742,7 +4797,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>56</v>
       </c>
@@ -4759,7 +4814,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>127</v>
       </c>
@@ -4776,7 +4831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>129</v>
       </c>
@@ -4793,7 +4848,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>85</v>
       </c>
@@ -4810,7 +4865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>104</v>
       </c>
@@ -4827,7 +4882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>40</v>
       </c>
@@ -4844,7 +4899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>13</v>
       </c>
@@ -4861,7 +4916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>24</v>
       </c>
@@ -4878,7 +4933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>26</v>
       </c>
@@ -4895,7 +4950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>67</v>
       </c>
@@ -4912,7 +4967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -4929,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>20</v>
       </c>
@@ -4946,7 +5001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>135</v>
       </c>
@@ -4963,7 +5018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>9</v>
       </c>
@@ -4980,7 +5035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>99</v>
       </c>
@@ -4997,7 +5052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -5031,7 +5086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>34</v>
       </c>
@@ -5048,7 +5103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>38</v>
       </c>
@@ -5065,7 +5120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
@@ -5082,7 +5137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>101</v>
       </c>
@@ -5099,7 +5154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>79</v>
       </c>
@@ -5116,7 +5171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>89</v>
       </c>
@@ -5133,7 +5188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>202</v>
       </c>
@@ -5150,7 +5205,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>93</v>
       </c>
@@ -5167,7 +5222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>399</v>
       </c>
@@ -5184,7 +5239,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
@@ -5201,7 +5256,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>280</v>
       </c>
@@ -5218,7 +5273,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>403</v>
       </c>
@@ -5235,7 +5290,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>324</v>
       </c>
@@ -5252,7 +5307,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>381</v>
       </c>
@@ -5269,7 +5324,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>310</v>
       </c>
@@ -5286,7 +5341,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>359</v>
       </c>
@@ -5303,7 +5358,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>111</v>
       </c>
@@ -5320,7 +5375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>65</v>
       </c>
@@ -5337,7 +5392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>36</v>
       </c>
@@ -5354,7 +5409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>246</v>
       </c>
@@ -5371,7 +5426,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>471</v>
       </c>
@@ -5388,7 +5443,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>562</v>
       </c>
@@ -5405,7 +5460,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>131</v>
       </c>
@@ -5422,7 +5477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -5439,7 +5494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>133</v>
       </c>
@@ -5456,7 +5511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>52</v>
       </c>
@@ -5473,7 +5528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>102</v>
       </c>
@@ -5490,7 +5545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>113</v>
       </c>
@@ -5507,7 +5562,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
@@ -5524,7 +5579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>139</v>
       </c>
@@ -5541,7 +5596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>105</v>
       </c>
@@ -5558,7 +5613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>218</v>
       </c>
@@ -5575,7 +5630,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>155</v>
       </c>
@@ -5592,7 +5647,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>238</v>
       </c>
@@ -5609,7 +5664,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>304</v>
       </c>
@@ -5626,7 +5681,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>306</v>
       </c>
@@ -5643,7 +5698,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>300</v>
       </c>
@@ -5660,7 +5715,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>153</v>
       </c>
@@ -5677,7 +5732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>411</v>
       </c>
@@ -5694,7 +5749,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>357</v>
       </c>
@@ -5711,7 +5766,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>536</v>
       </c>
@@ -5728,7 +5783,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>621</v>
       </c>
@@ -5745,7 +5800,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>667</v>
       </c>
@@ -5762,7 +5817,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>542</v>
       </c>
@@ -5779,7 +5834,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>350</v>
       </c>
@@ -5796,7 +5851,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>477</v>
       </c>
@@ -5813,7 +5868,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>601</v>
       </c>
@@ -5830,7 +5885,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>485</v>
       </c>
@@ -5847,7 +5902,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>488</v>
       </c>
@@ -5864,7 +5919,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>578</v>
       </c>
@@ -5881,7 +5936,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>528</v>
       </c>
@@ -5898,7 +5953,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>516</v>
       </c>
@@ -5915,7 +5970,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>405</v>
       </c>
@@ -5932,7 +5987,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>354</v>
       </c>
@@ -5949,7 +6004,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>365</v>
       </c>
@@ -5966,7 +6021,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>383</v>
       </c>
@@ -5983,7 +6038,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>330</v>
       </c>
@@ -6000,7 +6055,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>244</v>
       </c>
@@ -6017,7 +6072,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>268</v>
       </c>
@@ -6034,7 +6089,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>182</v>
       </c>
@@ -6051,7 +6106,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>143</v>
       </c>
@@ -6068,7 +6123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>123</v>
       </c>
@@ -6085,7 +6140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>248</v>
       </c>
@@ -6102,7 +6157,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>262</v>
       </c>
@@ -6119,7 +6174,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>473</v>
       </c>
@@ -6136,7 +6191,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>451</v>
       </c>
@@ -6153,7 +6208,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>276</v>
       </c>
@@ -6170,7 +6225,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>439</v>
       </c>
@@ -6187,7 +6242,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>423</v>
       </c>
@@ -6204,7 +6259,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>546</v>
       </c>
@@ -6221,7 +6276,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>48</v>
       </c>
@@ -6238,7 +6293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>81</v>
       </c>
@@ -6255,7 +6310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>46</v>
       </c>
@@ -6272,7 +6327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>59</v>
       </c>
@@ -6289,7 +6344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>69</v>
       </c>
@@ -6306,7 +6361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>63</v>
       </c>
@@ -6323,7 +6378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>73</v>
       </c>
@@ -6340,7 +6395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>164</v>
       </c>
@@ -6357,7 +6412,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>83</v>
       </c>
@@ -6374,7 +6429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>194</v>
       </c>
@@ -6391,7 +6446,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>145</v>
       </c>
@@ -6408,7 +6463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>186</v>
       </c>
@@ -6425,7 +6480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>334</v>
       </c>
@@ -6442,7 +6497,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>232</v>
       </c>
@@ -6459,7 +6514,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>210</v>
       </c>
@@ -6476,7 +6531,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>425</v>
       </c>
@@ -6493,7 +6548,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>457</v>
       </c>
@@ -6510,7 +6565,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>367</v>
       </c>
@@ -6527,7 +6582,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>441</v>
       </c>
@@ -6544,7 +6599,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>518</v>
       </c>
@@ -6561,7 +6616,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>603</v>
       </c>
@@ -6578,7 +6633,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>564</v>
       </c>
@@ -6595,7 +6650,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>538</v>
       </c>
@@ -6612,7 +6667,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>266</v>
       </c>
@@ -6629,7 +6684,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>115</v>
       </c>
@@ -6646,7 +6701,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>125</v>
       </c>
@@ -6663,7 +6718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>95</v>
       </c>
@@ -6680,7 +6735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>188</v>
       </c>
@@ -6697,7 +6752,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>264</v>
       </c>
@@ -6714,7 +6769,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>256</v>
       </c>
@@ -6731,7 +6786,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>320</v>
       </c>
@@ -6748,7 +6803,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>336</v>
       </c>
@@ -6765,7 +6820,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>236</v>
       </c>
@@ -6782,7 +6837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>214</v>
       </c>
@@ -6799,7 +6854,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>149</v>
       </c>
@@ -6816,7 +6871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>240</v>
       </c>
@@ -6833,7 +6888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>481</v>
       </c>
@@ -6850,7 +6905,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>379</v>
       </c>
@@ -6867,7 +6922,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>254</v>
       </c>
@@ -6884,7 +6939,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>510</v>
       </c>
@@ -6901,7 +6956,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>635</v>
       </c>
@@ -6918,7 +6973,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>645</v>
       </c>
@@ -6935,7 +6990,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>168</v>
       </c>
@@ -6952,7 +7007,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>524</v>
       </c>
@@ -6969,7 +7024,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>270</v>
       </c>
@@ -6986,7 +7041,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>459</v>
       </c>
@@ -7003,7 +7058,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>338</v>
       </c>
@@ -7020,7 +7075,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>449</v>
       </c>
@@ -7037,7 +7092,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>28</v>
       </c>
@@ -7054,7 +7109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>298</v>
       </c>
@@ -7071,7 +7126,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>443</v>
       </c>
@@ -7088,7 +7143,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>292</v>
       </c>
@@ -7105,7 +7160,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>352</v>
       </c>
@@ -7122,7 +7177,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>180</v>
       </c>
@@ -7139,7 +7194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>413</v>
       </c>
@@ -7156,7 +7211,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>507</v>
       </c>
@@ -7173,7 +7228,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>461</v>
       </c>
@@ -7190,7 +7245,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>453</v>
       </c>
@@ -7207,7 +7262,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>548</v>
       </c>
@@ -7224,7 +7279,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>530</v>
       </c>
@@ -7241,7 +7296,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>212</v>
       </c>
@@ -7258,7 +7313,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>288</v>
       </c>
@@ -7275,7 +7330,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>272</v>
       </c>
@@ -7292,7 +7347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>166</v>
       </c>
@@ -7309,7 +7364,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>465</v>
       </c>
@@ -7326,7 +7381,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>157</v>
       </c>
@@ -7343,7 +7398,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>107</v>
       </c>
@@ -7360,7 +7415,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>342</v>
       </c>
@@ -7377,7 +7432,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>566</v>
       </c>
@@ -7394,7 +7449,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>234</v>
       </c>
@@ -7411,7 +7466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>198</v>
       </c>
@@ -7428,7 +7483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>346</v>
       </c>
@@ -7445,7 +7500,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>675</v>
       </c>
@@ -7462,7 +7517,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>552</v>
       </c>
@@ -7479,7 +7534,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>639</v>
       </c>
@@ -7496,7 +7551,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>705</v>
       </c>
@@ -7513,7 +7568,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>617</v>
       </c>
@@ -7530,7 +7585,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>532</v>
       </c>
@@ -7547,7 +7602,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>556</v>
       </c>
@@ -7564,7 +7619,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>332</v>
       </c>
@@ -7581,7 +7636,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>570</v>
       </c>
@@ -7598,7 +7653,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>514</v>
       </c>
@@ -7615,7 +7670,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>435</v>
       </c>
@@ -7632,7 +7687,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>495</v>
       </c>
@@ -7649,7 +7704,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>589</v>
       </c>
@@ -7666,7 +7721,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>499</v>
       </c>
@@ -7683,7 +7738,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>282</v>
       </c>
@@ -7700,7 +7755,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>631</v>
       </c>
@@ -7717,7 +7772,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>429</v>
       </c>
@@ -7734,7 +7789,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>387</v>
       </c>
@@ -7751,7 +7806,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>417</v>
       </c>
@@ -7768,7 +7823,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>30</v>
       </c>
@@ -7785,7 +7840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>216</v>
       </c>
@@ -7802,7 +7857,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>250</v>
       </c>
@@ -7819,7 +7874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>558</v>
       </c>
@@ -7836,7 +7891,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>643</v>
       </c>
@@ -7853,7 +7908,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
         <v>326</v>
       </c>
@@ -7870,7 +7925,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
         <v>437</v>
       </c>
@@ -7887,7 +7942,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
         <v>328</v>
       </c>
@@ -7904,7 +7959,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>574</v>
       </c>
@@ -7921,7 +7976,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>322</v>
       </c>
@@ -7938,7 +7993,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>162</v>
       </c>
@@ -7955,7 +8010,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>192</v>
       </c>
@@ -7972,7 +8027,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>109</v>
       </c>
@@ -7989,7 +8044,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>308</v>
       </c>
@@ -8006,7 +8061,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>609</v>
       </c>
@@ -8023,7 +8078,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>391</v>
       </c>
@@ -8040,7 +8095,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>121</v>
       </c>
@@ -8057,7 +8112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>296</v>
       </c>
@@ -8074,7 +8129,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>174</v>
       </c>
@@ -8091,7 +8146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>178</v>
       </c>
@@ -8108,7 +8163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>534</v>
       </c>
@@ -8125,7 +8180,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>681</v>
       </c>
@@ -8142,7 +8197,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>693</v>
       </c>
@@ -8159,7 +8214,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>669</v>
       </c>
@@ -8176,7 +8231,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
         <v>467</v>
       </c>
@@ -8193,7 +8248,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
         <v>582</v>
       </c>
@@ -8210,7 +8265,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
         <v>397</v>
       </c>
@@ -8227,7 +8282,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>641</v>
       </c>
@@ -8244,7 +8299,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
         <v>687</v>
       </c>
@@ -8261,7 +8316,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
         <v>284</v>
       </c>
@@ -8278,7 +8333,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
         <v>395</v>
       </c>
@@ -8295,7 +8350,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>433</v>
       </c>
@@ -8312,7 +8367,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
         <v>554</v>
       </c>
@@ -8329,7 +8384,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>415</v>
       </c>
@@ -8346,7 +8401,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
         <v>597</v>
       </c>
@@ -8363,7 +8418,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>208</v>
       </c>
@@ -8380,7 +8435,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
         <v>493</v>
       </c>
@@ -8397,7 +8452,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
         <v>445</v>
       </c>
@@ -8414,7 +8469,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
         <v>117</v>
       </c>
@@ -8431,7 +8486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>190</v>
       </c>
@@ -8448,7 +8503,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>224</v>
       </c>
@@ -8465,7 +8520,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
         <v>586</v>
       </c>
@@ -8482,7 +8537,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
         <v>361</v>
       </c>
@@ -8499,7 +8554,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>286</v>
       </c>
@@ -8516,7 +8571,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
         <v>455</v>
       </c>
@@ -8533,7 +8588,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
         <v>544</v>
       </c>
@@ -8550,7 +8605,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
         <v>657</v>
       </c>
@@ -8567,7 +8622,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
         <v>605</v>
       </c>
@@ -8584,7 +8639,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
         <v>593</v>
       </c>
@@ -8601,7 +8656,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
         <v>463</v>
       </c>
@@ -8618,7 +8673,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
         <v>512</v>
       </c>
@@ -8635,7 +8690,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
         <v>475</v>
       </c>
@@ -8652,7 +8707,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
         <v>401</v>
       </c>
@@ -8669,7 +8724,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
         <v>607</v>
       </c>
@@ -8686,7 +8741,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
         <v>419</v>
       </c>
@@ -8703,7 +8758,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
         <v>503</v>
       </c>
@@ -8720,7 +8775,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
         <v>651</v>
       </c>
@@ -8737,7 +8792,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
         <v>629</v>
       </c>
@@ -8754,7 +8809,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
         <v>591</v>
       </c>
@@ -8771,7 +8826,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
         <v>665</v>
       </c>
@@ -8788,7 +8843,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
         <v>490</v>
       </c>
@@ -8805,7 +8860,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
         <v>479</v>
       </c>
@@ -8822,7 +8877,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
         <v>659</v>
       </c>
@@ -8839,7 +8894,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
         <v>623</v>
       </c>
@@ -8856,7 +8911,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="s">
         <v>699</v>
       </c>
@@ -8873,7 +8928,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
         <v>701</v>
       </c>
@@ -8890,7 +8945,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
         <v>679</v>
       </c>
@@ -8907,7 +8962,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
         <v>560</v>
       </c>
@@ -8924,7 +8979,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="s">
         <v>540</v>
       </c>
@@ -8941,7 +8996,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
         <v>486</v>
       </c>
@@ -8958,7 +9013,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
         <v>661</v>
       </c>
@@ -8975,7 +9030,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
         <v>677</v>
       </c>
@@ -8992,7 +9047,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
         <v>663</v>
       </c>
@@ -9009,7 +9064,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
         <v>619</v>
       </c>
@@ -9026,7 +9081,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="s">
         <v>633</v>
       </c>
@@ -9043,7 +9098,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
         <v>526</v>
       </c>
@@ -9060,7 +9115,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="13" t="s">
         <v>369</v>
       </c>
@@ -9076,6 +9131,17 @@
       <c r="E357" s="8" t="s">
         <v>301</v>
       </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" s="15">
+        <v>9999</v>
+      </c>
+      <c r="B358" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="C358" s="17"/>
+      <c r="D358" s="18"/>
+      <c r="E358" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9086,6 +9152,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9286,15 +9361,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9305,13 +9371,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9213BA-459C-4580-8D08-12097DF8676B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9213BA-459C-4580-8D08-12097DF8676B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{508E8880-E1B9-4449-9A96-0CEA49ECD046}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FC24114-B2A0-48C0-BF96-50EFC1F1B229}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="729">
   <si>
     <t>knr</t>
   </si>
@@ -2217,9 +2217,6 @@
   </si>
   <si>
     <t>Os</t>
-  </si>
-  <si>
-    <t>ukjent</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2400,60 +2397,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2477,10 +2426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2737,8 +2682,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5ED600C-6F80-4368-A9FB-A67AD1DF9EC2}" name="Tabell1" displayName="Tabell1" ref="A1:E358" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
-  <autoFilter ref="A1:E358" xr:uid="{3018CA22-E830-4562-A59C-3ECEF7AFCA75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5ED600C-6F80-4368-A9FB-A67AD1DF9EC2}" name="Tabell1" displayName="Tabell1" ref="A1:E357" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A1:E357" xr:uid="{3018CA22-E830-4562-A59C-3ECEF7AFCA75}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E357">
     <sortCondition ref="A1:A357"/>
   </sortState>
@@ -3050,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5E9789-F76B-4011-96B4-AC897B28298C}">
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+      <selection activeCell="G350" sqref="G350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9132,17 +9077,6 @@
         <v>301</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A358" s="15">
-        <v>9999</v>
-      </c>
-      <c r="B358" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="C358" s="17"/>
-      <c r="D358" s="18"/>
-      <c r="E358" s="18"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9152,15 +9086,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9361,6 +9286,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9371,14 +9305,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9213BA-459C-4580-8D08-12097DF8676B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9397,6 +9323,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3DC619-F968-435D-92C1-F205B3338854}">
   <ds:schemaRefs>

--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -9086,8 +9086,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -9108,6 +9108,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9184,6 +9185,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9305,22 +9311,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9213BA-459C-4580-8D08-12097DF8676B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575380E6-B55F-496A-808C-63CA2B32787B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FC24114-B2A0-48C0-BF96-50EFC1F1B229}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C66A08F-BFA7-417B-920D-5B4656C76687}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1637,9 +1637,6 @@
     <t>5041</t>
   </si>
   <si>
-    <t>Snåase-Snåsa</t>
-  </si>
-  <si>
     <t>3423</t>
   </si>
   <si>
@@ -2217,6 +2214,9 @@
   </si>
   <si>
     <t>Os</t>
+  </si>
+  <si>
+    <t>Snåase - Snåsa</t>
   </si>
 </sst>
 </file>
@@ -2997,18 +2997,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5E9789-F76B-4011-96B4-AC897B28298C}">
   <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="G350" sqref="G350"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="J291" sqref="J291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3016,16 +3016,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3036,13 +3036,13 @@
         <v>1000</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
@@ -3053,13 +3053,13 @@
         <v>754</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -3070,13 +3070,13 @@
         <v>890</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
@@ -3087,13 +3087,13 @@
         <v>832</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -3104,13 +3104,13 @@
         <v>878</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
@@ -3121,13 +3121,13 @@
         <v>653</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>371</v>
       </c>
@@ -3138,13 +3138,13 @@
         <v>629</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>252</v>
       </c>
@@ -3155,13 +3155,13 @@
         <v>691</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>160</v>
       </c>
@@ -3172,13 +3172,13 @@
         <v>771</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -3189,13 +3189,13 @@
         <v>846</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>91</v>
       </c>
@@ -3206,13 +3206,13 @@
         <v>833</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
@@ -3223,13 +3223,13 @@
         <v>801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -3240,13 +3240,13 @@
         <v>857</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -3257,13 +3257,13 @@
         <v>866</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>226</v>
       </c>
@@ -3274,47 +3274,47 @@
         <v>708</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>576</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>577</v>
       </c>
       <c r="C17" s="6">
         <v>518</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>585</v>
       </c>
       <c r="C18" s="6">
         <v>509</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>385</v>
       </c>
@@ -3325,30 +3325,30 @@
         <v>620</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>596</v>
       </c>
       <c r="C20" s="6">
         <v>502</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>377</v>
       </c>
@@ -3359,13 +3359,13 @@
         <v>624</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>206</v>
       </c>
@@ -3376,13 +3376,13 @@
         <v>722</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>170</v>
       </c>
@@ -3393,30 +3393,30 @@
         <v>756</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>711</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>712</v>
       </c>
       <c r="C24" s="6">
         <v>295</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>344</v>
       </c>
@@ -3427,13 +3427,13 @@
         <v>644</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>172</v>
       </c>
@@ -3444,13 +3444,13 @@
         <v>755</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>200</v>
       </c>
@@ -3461,13 +3461,13 @@
         <v>731</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>151</v>
       </c>
@@ -3478,47 +3478,47 @@
         <v>779</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="C29" s="6">
         <v>526</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>509</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C30" s="6">
         <v>554</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>302</v>
       </c>
@@ -3529,13 +3529,13 @@
         <v>659</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>220</v>
       </c>
@@ -3546,13 +3546,13 @@
         <v>714</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>258</v>
       </c>
@@ -3563,13 +3563,13 @@
         <v>688</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>222</v>
       </c>
@@ -3580,13 +3580,13 @@
         <v>712</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>375</v>
       </c>
@@ -3597,13 +3597,13 @@
         <v>628</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>274</v>
       </c>
@@ -3614,13 +3614,13 @@
         <v>682</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>196</v>
       </c>
@@ -3631,13 +3631,13 @@
         <v>734</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>228</v>
       </c>
@@ -3648,13 +3648,13 @@
         <v>708</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>348</v>
       </c>
@@ -3665,13 +3665,13 @@
         <v>642</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>393</v>
       </c>
@@ -3682,13 +3682,13 @@
         <v>615</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>409</v>
       </c>
@@ -3699,13 +3699,13 @@
         <v>607</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>389</v>
       </c>
@@ -3716,13 +3716,13 @@
         <v>619</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>469</v>
       </c>
@@ -3733,13 +3733,13 @@
         <v>578</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>483</v>
       </c>
@@ -3750,13 +3750,13 @@
         <v>567</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>363</v>
       </c>
@@ -3767,13 +3767,13 @@
         <v>630</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>431</v>
       </c>
@@ -3784,47 +3784,47 @@
         <v>596</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>648</v>
       </c>
       <c r="C47" s="6">
         <v>450</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>613</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>614</v>
       </c>
       <c r="C48" s="6">
         <v>488</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -3835,13 +3835,13 @@
         <v>699</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>501</v>
       </c>
@@ -3852,13 +3852,13 @@
         <v>560</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>340</v>
       </c>
@@ -3869,13 +3869,13 @@
         <v>646</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>137</v>
       </c>
@@ -3886,13 +3886,13 @@
         <v>792</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>278</v>
       </c>
@@ -3903,47 +3903,47 @@
         <v>679</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="C54" s="6">
         <v>417</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>599</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>600</v>
       </c>
       <c r="C55" s="6">
         <v>499</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>407</v>
       </c>
@@ -3954,64 +3954,64 @@
         <v>608</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>692</v>
       </c>
       <c r="C57" s="6">
         <v>383</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>698</v>
       </c>
       <c r="C58" s="6">
         <v>368</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="C59" s="6">
         <v>464</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>316</v>
       </c>
@@ -4022,13 +4022,13 @@
         <v>653</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>505</v>
       </c>
@@ -4039,13 +4039,13 @@
         <v>557</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>260</v>
       </c>
@@ -4056,81 +4056,81 @@
         <v>688</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>625</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="C63" s="6">
         <v>478</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="C64" s="6">
         <v>450</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="C65" s="6">
         <v>420</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>612</v>
-      </c>
       <c r="C66" s="6">
         <v>492</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>497</v>
       </c>
@@ -4141,13 +4141,13 @@
         <v>561</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>230</v>
       </c>
@@ -4158,115 +4158,115 @@
         <v>708</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>703</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>704</v>
       </c>
       <c r="C69" s="6">
         <v>350</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>710</v>
       </c>
       <c r="C70" s="6">
         <v>315</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>708</v>
       </c>
       <c r="C71" s="6">
         <v>330</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="C72" s="6">
         <v>487</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="C73" s="6">
         <v>475</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="C74" s="6">
         <v>438</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>427</v>
       </c>
@@ -4277,13 +4277,13 @@
         <v>597</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>294</v>
       </c>
@@ -4294,13 +4294,13 @@
         <v>671</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>520</v>
       </c>
@@ -4311,30 +4311,30 @@
         <v>547</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="C78" s="6">
         <v>398</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>522</v>
       </c>
@@ -4345,81 +4345,81 @@
         <v>545</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="C80" s="6">
         <v>535</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>695</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>696</v>
       </c>
       <c r="C81" s="6">
         <v>369</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>690</v>
       </c>
       <c r="C82" s="6">
         <v>385</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>572</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>573</v>
       </c>
       <c r="C83" s="6">
         <v>520</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>373</v>
       </c>
@@ -4430,13 +4430,13 @@
         <v>629</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>318</v>
       </c>
@@ -4447,13 +4447,13 @@
         <v>652</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>421</v>
       </c>
@@ -4464,30 +4464,30 @@
         <v>599</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C87" s="6">
         <v>508</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>447</v>
       </c>
@@ -4498,13 +4498,13 @@
         <v>588</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>290</v>
       </c>
@@ -4515,64 +4515,64 @@
         <v>673</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="C90" s="6">
         <v>514</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="C91" s="6">
         <v>440</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="C92" s="6">
         <v>393</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>71</v>
       </c>
@@ -4583,13 +4583,13 @@
         <v>847</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>22</v>
       </c>
@@ -4600,13 +4600,13 @@
         <v>909</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>44</v>
       </c>
@@ -4617,13 +4617,13 @@
         <v>877</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>50</v>
       </c>
@@ -4634,13 +4634,13 @@
         <v>872</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
@@ -4651,13 +4651,13 @@
         <v>916</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>77</v>
       </c>
@@ -4668,13 +4668,13 @@
         <v>846</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>87</v>
       </c>
@@ -4685,13 +4685,13 @@
         <v>836</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>204</v>
       </c>
@@ -4702,13 +4702,13 @@
         <v>724</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>312</v>
       </c>
@@ -4719,13 +4719,13 @@
         <v>654</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>184</v>
       </c>
@@ -4736,13 +4736,13 @@
         <v>741</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>56</v>
       </c>
@@ -4753,13 +4753,13 @@
         <v>860</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>127</v>
       </c>
@@ -4770,13 +4770,13 @@
         <v>794</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>129</v>
       </c>
@@ -4787,13 +4787,13 @@
         <v>794</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>85</v>
       </c>
@@ -4804,30 +4804,30 @@
         <v>841</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C107" s="6">
         <v>819</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>40</v>
       </c>
@@ -4838,13 +4838,13 @@
         <v>879</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>13</v>
       </c>
@@ -4855,13 +4855,13 @@
         <v>929</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>24</v>
       </c>
@@ -4872,13 +4872,13 @@
         <v>903</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>26</v>
       </c>
@@ -4889,13 +4889,13 @@
         <v>903</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>67</v>
       </c>
@@ -4906,13 +4906,13 @@
         <v>848</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -4923,13 +4923,13 @@
         <v>971</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>20</v>
       </c>
@@ -4940,13 +4940,13 @@
         <v>914</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>135</v>
       </c>
@@ -4957,13 +4957,13 @@
         <v>793</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>9</v>
       </c>
@@ -4974,13 +4974,13 @@
         <v>939</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>99</v>
       </c>
@@ -4991,13 +4991,13 @@
         <v>825</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -5008,13 +5008,13 @@
         <v>976</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -5025,13 +5025,13 @@
         <v>938</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>34</v>
       </c>
@@ -5042,13 +5042,13 @@
         <v>890</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>38</v>
       </c>
@@ -5059,13 +5059,13 @@
         <v>885</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
@@ -5076,30 +5076,30 @@
         <v>915</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C123" s="6">
         <v>820</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>79</v>
       </c>
@@ -5110,13 +5110,13 @@
         <v>845</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>89</v>
       </c>
@@ -5127,13 +5127,13 @@
         <v>835</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>202</v>
       </c>
@@ -5144,13 +5144,13 @@
         <v>729</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>93</v>
       </c>
@@ -5161,13 +5161,13 @@
         <v>833</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>399</v>
       </c>
@@ -5178,30 +5178,30 @@
         <v>613</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C129" s="6">
         <v>636</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>280</v>
       </c>
@@ -5212,13 +5212,13 @@
         <v>679</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>403</v>
       </c>
@@ -5229,13 +5229,13 @@
         <v>611</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>324</v>
       </c>
@@ -5246,13 +5246,13 @@
         <v>651</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>381</v>
       </c>
@@ -5263,13 +5263,13 @@
         <v>622</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>310</v>
       </c>
@@ -5280,13 +5280,13 @@
         <v>656</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>359</v>
       </c>
@@ -5297,13 +5297,13 @@
         <v>633</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>111</v>
       </c>
@@ -5314,13 +5314,13 @@
         <v>810</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>65</v>
       </c>
@@ -5331,13 +5331,13 @@
         <v>849</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>36</v>
       </c>
@@ -5348,13 +5348,13 @@
         <v>890</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>246</v>
       </c>
@@ -5365,13 +5365,13 @@
         <v>695</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>471</v>
       </c>
@@ -5382,30 +5382,30 @@
         <v>578</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="C141" s="6">
         <v>532</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>131</v>
       </c>
@@ -5416,13 +5416,13 @@
         <v>794</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -5433,13 +5433,13 @@
         <v>787</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>133</v>
       </c>
@@ -5450,13 +5450,13 @@
         <v>794</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>52</v>
       </c>
@@ -5467,13 +5467,13 @@
         <v>871</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>102</v>
       </c>
@@ -5484,13 +5484,13 @@
         <v>820</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>113</v>
       </c>
@@ -5501,13 +5501,13 @@
         <v>808</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
@@ -5518,13 +5518,13 @@
         <v>780</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>139</v>
       </c>
@@ -5535,13 +5535,13 @@
         <v>792</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>105</v>
       </c>
@@ -5552,13 +5552,13 @@
         <v>817</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>218</v>
       </c>
@@ -5569,13 +5569,13 @@
         <v>716</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>155</v>
       </c>
@@ -5586,13 +5586,13 @@
         <v>774</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>238</v>
       </c>
@@ -5603,13 +5603,13 @@
         <v>700</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>304</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>657</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>306</v>
       </c>
@@ -5637,30 +5637,30 @@
         <v>657</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C156" s="6">
         <v>662</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>153</v>
       </c>
@@ -5671,13 +5671,13 @@
         <v>776</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>411</v>
       </c>
@@ -5688,13 +5688,13 @@
         <v>607</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>357</v>
       </c>
@@ -5705,81 +5705,81 @@
         <v>634</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="C160" s="6">
         <v>540</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>622</v>
       </c>
       <c r="C161" s="6">
         <v>482</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="C162" s="6">
         <v>428</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="C163" s="6">
         <v>538</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>350</v>
       </c>
@@ -5790,13 +5790,13 @@
         <v>641</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>477</v>
       </c>
@@ -5807,47 +5807,47 @@
         <v>575</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>601</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="C166" s="6">
         <v>498</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>485</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C167" s="6">
         <v>565</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>488</v>
       </c>
@@ -5858,30 +5858,30 @@
         <v>564</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>579</v>
       </c>
       <c r="C169" s="6">
         <v>518</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>528</v>
       </c>
@@ -5892,13 +5892,13 @@
         <v>541</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>516</v>
       </c>
@@ -5909,13 +5909,13 @@
         <v>551</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>405</v>
       </c>
@@ -5926,13 +5926,13 @@
         <v>610</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>354</v>
       </c>
@@ -5943,13 +5943,13 @@
         <v>638</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>365</v>
       </c>
@@ -5960,13 +5960,13 @@
         <v>630</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>383</v>
       </c>
@@ -5977,13 +5977,13 @@
         <v>622</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>330</v>
       </c>
@@ -5994,13 +5994,13 @@
         <v>649</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>244</v>
       </c>
@@ -6011,13 +6011,13 @@
         <v>699</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>268</v>
       </c>
@@ -6028,13 +6028,13 @@
         <v>686</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>182</v>
       </c>
@@ -6045,13 +6045,13 @@
         <v>742</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>143</v>
       </c>
@@ -6062,13 +6062,13 @@
         <v>782</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>123</v>
       </c>
@@ -6079,13 +6079,13 @@
         <v>796</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>248</v>
       </c>
@@ -6096,13 +6096,13 @@
         <v>694</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>262</v>
       </c>
@@ -6113,13 +6113,13 @@
         <v>688</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>473</v>
       </c>
@@ -6130,13 +6130,13 @@
         <v>578</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>451</v>
       </c>
@@ -6147,13 +6147,13 @@
         <v>587</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>276</v>
       </c>
@@ -6164,13 +6164,13 @@
         <v>681</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>439</v>
       </c>
@@ -6181,13 +6181,13 @@
         <v>593</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>423</v>
       </c>
@@ -6198,30 +6198,30 @@
         <v>599</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="C189" s="6">
         <v>537</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>48</v>
       </c>
@@ -6232,13 +6232,13 @@
         <v>875</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>81</v>
       </c>
@@ -6249,13 +6249,13 @@
         <v>845</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>46</v>
       </c>
@@ -6266,13 +6266,13 @@
         <v>877</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>59</v>
       </c>
@@ -6283,13 +6283,13 @@
         <v>859</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>69</v>
       </c>
@@ -6300,13 +6300,13 @@
         <v>848</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>63</v>
       </c>
@@ -6317,13 +6317,13 @@
         <v>851</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>73</v>
       </c>
@@ -6334,13 +6334,13 @@
         <v>847</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>164</v>
       </c>
@@ -6351,13 +6351,13 @@
         <v>769</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>83</v>
       </c>
@@ -6368,13 +6368,13 @@
         <v>844</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>194</v>
       </c>
@@ -6385,13 +6385,13 @@
         <v>735</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>145</v>
       </c>
@@ -6402,13 +6402,13 @@
         <v>781</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>186</v>
       </c>
@@ -6419,13 +6419,13 @@
         <v>740</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>334</v>
       </c>
@@ -6436,13 +6436,13 @@
         <v>648</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>232</v>
       </c>
@@ -6453,13 +6453,13 @@
         <v>706</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>210</v>
       </c>
@@ -6470,13 +6470,13 @@
         <v>721</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>425</v>
       </c>
@@ -6487,13 +6487,13 @@
         <v>598</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>457</v>
       </c>
@@ -6504,13 +6504,13 @@
         <v>583</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>367</v>
       </c>
@@ -6521,13 +6521,13 @@
         <v>630</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E207" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>441</v>
       </c>
@@ -6538,13 +6538,13 @@
         <v>593</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>518</v>
       </c>
@@ -6555,64 +6555,64 @@
         <v>548</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>603</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>604</v>
       </c>
       <c r="C210" s="6">
         <v>497</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="C211" s="6">
         <v>529</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="C212" s="6">
         <v>539</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>266</v>
       </c>
@@ -6623,13 +6623,13 @@
         <v>687</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>115</v>
       </c>
@@ -6640,13 +6640,13 @@
         <v>806</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>125</v>
       </c>
@@ -6657,13 +6657,13 @@
         <v>796</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>95</v>
       </c>
@@ -6674,13 +6674,13 @@
         <v>833</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>188</v>
       </c>
@@ -6691,13 +6691,13 @@
         <v>740</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>264</v>
       </c>
@@ -6708,13 +6708,13 @@
         <v>688</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>256</v>
       </c>
@@ -6725,13 +6725,13 @@
         <v>689</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>320</v>
       </c>
@@ -6742,13 +6742,13 @@
         <v>652</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>336</v>
       </c>
@@ -6759,13 +6759,13 @@
         <v>648</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>236</v>
       </c>
@@ -6776,13 +6776,13 @@
         <v>703</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>214</v>
       </c>
@@ -6793,13 +6793,13 @@
         <v>720</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>149</v>
       </c>
@@ -6810,13 +6810,13 @@
         <v>780</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>240</v>
       </c>
@@ -6827,13 +6827,13 @@
         <v>700</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>481</v>
       </c>
@@ -6844,13 +6844,13 @@
         <v>570</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>379</v>
       </c>
@@ -6861,13 +6861,13 @@
         <v>623</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E227" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>254</v>
       </c>
@@ -6878,13 +6878,13 @@
         <v>691</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>510</v>
       </c>
@@ -6895,47 +6895,47 @@
         <v>554</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>636</v>
       </c>
       <c r="C230" s="6">
         <v>465</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B231" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="C231" s="6">
         <v>457</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E231" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>168</v>
       </c>
@@ -6946,13 +6946,13 @@
         <v>759</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>524</v>
       </c>
@@ -6963,13 +6963,13 @@
         <v>544</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E233" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>270</v>
       </c>
@@ -6980,13 +6980,13 @@
         <v>686</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>459</v>
       </c>
@@ -6997,13 +6997,13 @@
         <v>583</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>338</v>
       </c>
@@ -7014,13 +7014,13 @@
         <v>648</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>449</v>
       </c>
@@ -7031,13 +7031,13 @@
         <v>588</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>28</v>
       </c>
@@ -7048,13 +7048,13 @@
         <v>895</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>298</v>
       </c>
@@ -7065,13 +7065,13 @@
         <v>663</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E239" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>443</v>
       </c>
@@ -7082,13 +7082,13 @@
         <v>592</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>292</v>
       </c>
@@ -7099,13 +7099,13 @@
         <v>673</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E241" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>352</v>
       </c>
@@ -7116,13 +7116,13 @@
         <v>640</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>180</v>
       </c>
@@ -7133,13 +7133,13 @@
         <v>743</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E243" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>413</v>
       </c>
@@ -7150,13 +7150,13 @@
         <v>606</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>507</v>
       </c>
@@ -7167,13 +7167,13 @@
         <v>557</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E245" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>461</v>
       </c>
@@ -7184,13 +7184,13 @@
         <v>581</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E246" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>453</v>
       </c>
@@ -7201,30 +7201,30 @@
         <v>587</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E247" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B248" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>549</v>
       </c>
       <c r="C248" s="6">
         <v>537</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E248" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>530</v>
       </c>
@@ -7235,13 +7235,13 @@
         <v>541</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E249" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>212</v>
       </c>
@@ -7252,13 +7252,13 @@
         <v>721</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>288</v>
       </c>
@@ -7269,13 +7269,13 @@
         <v>675</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E251" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>272</v>
       </c>
@@ -7286,13 +7286,13 @@
         <v>686</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>166</v>
       </c>
@@ -7303,13 +7303,13 @@
         <v>762</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E253" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>465</v>
       </c>
@@ -7320,13 +7320,13 @@
         <v>580</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>157</v>
       </c>
@@ -7337,13 +7337,13 @@
         <v>773</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E255" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>107</v>
       </c>
@@ -7354,13 +7354,13 @@
         <v>811</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>342</v>
       </c>
@@ -7371,30 +7371,30 @@
         <v>645</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E257" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>566</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>567</v>
       </c>
       <c r="C258" s="6">
         <v>528</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E258" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
         <v>234</v>
       </c>
@@ -7405,13 +7405,13 @@
         <v>704</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>198</v>
       </c>
@@ -7422,13 +7422,13 @@
         <v>734</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>346</v>
       </c>
@@ -7439,98 +7439,98 @@
         <v>643</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>676</v>
       </c>
       <c r="C262" s="6">
         <v>410</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="C263" s="6">
         <v>535</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="C264" s="6">
         <v>464</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>705</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>706</v>
       </c>
       <c r="C265" s="6">
         <v>350</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E265" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>617</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>618</v>
       </c>
       <c r="C266" s="6">
         <v>487</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>532</v>
       </c>
@@ -7541,30 +7541,30 @@
         <v>541</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E267" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="C268" s="6">
         <v>533</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>332</v>
       </c>
@@ -7575,30 +7575,30 @@
         <v>649</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E269" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B270" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="C270" s="6">
         <v>526</v>
       </c>
       <c r="D270" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>514</v>
       </c>
@@ -7609,13 +7609,13 @@
         <v>552</v>
       </c>
       <c r="D271" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E271" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>435</v>
       </c>
@@ -7626,13 +7626,13 @@
         <v>595</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E272" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>495</v>
       </c>
@@ -7643,30 +7643,30 @@
         <v>562</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E273" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>590</v>
       </c>
       <c r="C274" s="6">
         <v>505</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E274" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>499</v>
       </c>
@@ -7677,13 +7677,13 @@
         <v>561</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E275" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>282</v>
       </c>
@@ -7694,30 +7694,30 @@
         <v>678</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="C277" s="6">
         <v>471</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E277" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>429</v>
       </c>
@@ -7728,13 +7728,13 @@
         <v>597</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E278" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>387</v>
       </c>
@@ -7745,13 +7745,13 @@
         <v>620</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E279" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>417</v>
       </c>
@@ -7762,13 +7762,13 @@
         <v>603</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E280" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>30</v>
       </c>
@@ -7779,13 +7779,13 @@
         <v>891</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E281" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>216</v>
       </c>
@@ -7796,13 +7796,13 @@
         <v>719</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E282" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
         <v>250</v>
       </c>
@@ -7813,47 +7813,47 @@
         <v>693</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E283" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B284" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="C284" s="6">
         <v>533</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E284" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B285" s="9" t="s">
         <v>643</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>644</v>
       </c>
       <c r="C285" s="6">
         <v>462</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E285" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>326</v>
       </c>
@@ -7864,13 +7864,13 @@
         <v>650</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E286" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
         <v>437</v>
       </c>
@@ -7881,13 +7881,13 @@
         <v>595</v>
       </c>
       <c r="D287" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E287" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>328</v>
       </c>
@@ -7898,30 +7898,30 @@
         <v>650</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E288" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B289" s="9" t="s">
         <v>574</v>
-      </c>
-      <c r="B289" s="9" t="s">
-        <v>575</v>
       </c>
       <c r="C289" s="6">
         <v>520</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E289" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>322</v>
       </c>
@@ -7932,13 +7932,13 @@
         <v>652</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>162</v>
       </c>
@@ -7949,13 +7949,13 @@
         <v>770</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E291" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>192</v>
       </c>
@@ -7966,13 +7966,13 @@
         <v>736</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>109</v>
       </c>
@@ -7983,13 +7983,13 @@
         <v>811</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E293" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>308</v>
       </c>
@@ -8000,30 +8000,30 @@
         <v>657</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E294" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B295" s="9" t="s">
         <v>609</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>610</v>
       </c>
       <c r="C295" s="6">
         <v>493</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E295" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
         <v>391</v>
       </c>
@@ -8034,13 +8034,13 @@
         <v>618</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E296" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>121</v>
       </c>
@@ -8051,13 +8051,13 @@
         <v>801</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E297" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>296</v>
       </c>
@@ -8068,13 +8068,13 @@
         <v>670</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E298" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>174</v>
       </c>
@@ -8085,13 +8085,13 @@
         <v>755</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E299" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>178</v>
       </c>
@@ -8102,81 +8102,81 @@
         <v>749</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E300" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>534</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>535</v>
+        <v>728</v>
       </c>
       <c r="C301" s="6">
         <v>541</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E301" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B302" s="9" t="s">
         <v>681</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>682</v>
       </c>
       <c r="C302" s="6">
         <v>400</v>
       </c>
       <c r="D302" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E302" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B303" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="B303" s="9" t="s">
-        <v>694</v>
       </c>
       <c r="C303" s="6">
         <v>383</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E303" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B304" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>670</v>
       </c>
       <c r="C304" s="6">
         <v>428</v>
       </c>
       <c r="D304" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E304" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>467</v>
       </c>
@@ -8187,30 +8187,30 @@
         <v>579</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E305" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B306" s="9" t="s">
         <v>582</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>583</v>
       </c>
       <c r="C306" s="6">
         <v>513</v>
       </c>
       <c r="D306" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E306" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>397</v>
       </c>
@@ -8221,47 +8221,47 @@
         <v>614</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E307" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B308" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>642</v>
       </c>
       <c r="C308" s="6">
         <v>464</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E308" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B309" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="B309" s="5" t="s">
-        <v>688</v>
       </c>
       <c r="C309" s="6">
         <v>392</v>
       </c>
       <c r="D309" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E309" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>284</v>
       </c>
@@ -8272,13 +8272,13 @@
         <v>678</v>
       </c>
       <c r="D310" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E310" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>395</v>
       </c>
@@ -8289,13 +8289,13 @@
         <v>615</v>
       </c>
       <c r="D311" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E311" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>433</v>
       </c>
@@ -8306,30 +8306,30 @@
         <v>596</v>
       </c>
       <c r="D312" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E312" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B313" s="9" t="s">
         <v>554</v>
-      </c>
-      <c r="B313" s="9" t="s">
-        <v>555</v>
       </c>
       <c r="C313" s="6">
         <v>535</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E313" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>415</v>
       </c>
@@ -8340,30 +8340,30 @@
         <v>604</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E314" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B315" s="9" t="s">
         <v>597</v>
-      </c>
-      <c r="B315" s="9" t="s">
-        <v>598</v>
       </c>
       <c r="C315" s="6">
         <v>502</v>
       </c>
       <c r="D315" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E315" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>208</v>
       </c>
@@ -8374,13 +8374,13 @@
         <v>722</v>
       </c>
       <c r="D316" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E316" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>493</v>
       </c>
@@ -8391,13 +8391,13 @@
         <v>563</v>
       </c>
       <c r="D317" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E317" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>445</v>
       </c>
@@ -8408,13 +8408,13 @@
         <v>592</v>
       </c>
       <c r="D318" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E318" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>117</v>
       </c>
@@ -8425,13 +8425,13 @@
         <v>804</v>
       </c>
       <c r="D319" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E319" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>190</v>
       </c>
@@ -8442,13 +8442,13 @@
         <v>737</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E320" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>224</v>
       </c>
@@ -8459,30 +8459,30 @@
         <v>709</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E321" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B322" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="C322" s="6">
         <v>509</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E322" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>361</v>
       </c>
@@ -8493,13 +8493,13 @@
         <v>632</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E323" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>286</v>
       </c>
@@ -8510,13 +8510,13 @@
         <v>676</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E324" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>455</v>
       </c>
@@ -8527,81 +8527,81 @@
         <v>586</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E325" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B326" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="C326" s="6">
         <v>538</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E326" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="C327" s="6">
         <v>438</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E327" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B328" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="C328" s="6">
         <v>496</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E328" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B329" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="C329" s="6">
         <v>504</v>
       </c>
       <c r="D329" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E329" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
         <v>463</v>
       </c>
@@ -8612,13 +8612,13 @@
         <v>581</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E330" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>512</v>
       </c>
@@ -8629,13 +8629,13 @@
         <v>554</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E331" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>475</v>
       </c>
@@ -8646,13 +8646,13 @@
         <v>577</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E332" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>401</v>
       </c>
@@ -8663,30 +8663,30 @@
         <v>613</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E333" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B334" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="C334" s="6">
         <v>495</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E334" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
         <v>419</v>
       </c>
@@ -8697,13 +8697,13 @@
         <v>600</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E335" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
         <v>503</v>
       </c>
@@ -8714,81 +8714,81 @@
         <v>560</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E336" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B337" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="C337" s="6">
         <v>441</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E337" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B338" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>630</v>
       </c>
       <c r="C338" s="6">
         <v>472</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E338" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B339" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>592</v>
       </c>
       <c r="C339" s="6">
         <v>505</v>
       </c>
       <c r="D339" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E339" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B340" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>666</v>
       </c>
       <c r="C340" s="6">
         <v>431</v>
       </c>
       <c r="D340" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E340" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>490</v>
       </c>
@@ -8799,13 +8799,13 @@
         <v>564</v>
       </c>
       <c r="D341" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E341" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
         <v>479</v>
       </c>
@@ -8816,132 +8816,132 @@
         <v>573</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E342" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B343" s="5" t="s">
         <v>659</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>660</v>
       </c>
       <c r="C343" s="6">
         <v>437</v>
       </c>
       <c r="D343" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E343" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B344" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>624</v>
       </c>
       <c r="C344" s="6">
         <v>481</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E344" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B345" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="C345" s="6">
         <v>368</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E345" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B346" s="5" t="s">
         <v>701</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>702</v>
       </c>
       <c r="C346" s="6">
         <v>351</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E346" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B347" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>680</v>
       </c>
       <c r="C347" s="6">
         <v>402</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E347" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B348" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="C348" s="6">
         <v>533</v>
       </c>
       <c r="D348" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E348" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B349" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="C349" s="6">
         <v>539</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E349" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
         <v>486</v>
       </c>
@@ -8952,98 +8952,98 @@
         <v>565</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E350" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B351" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>662</v>
       </c>
       <c r="C351" s="6">
         <v>435</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E351" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B352" s="5" t="s">
         <v>677</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>678</v>
       </c>
       <c r="C352" s="6">
         <v>408</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E352" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B353" s="5" t="s">
         <v>663</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="C353" s="6">
         <v>432</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E353" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B354" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>620</v>
       </c>
       <c r="C354" s="6">
         <v>484</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E354" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B355" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="C355" s="6">
         <v>471</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E355" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>526</v>
       </c>
@@ -9054,13 +9054,13 @@
         <v>543</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E356" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="13" t="s">
         <v>369</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>630</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E357" s="8" t="s">
         <v>301</v>
@@ -9079,13 +9079,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9292,15 +9302,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9311,13 +9312,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575380E6-B55F-496A-808C-63CA2B32787B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575380E6-B55F-496A-808C-63CA2B32787B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -9096,10 +9096,11 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -9119,6 +9120,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9201,6 +9204,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -9307,6 +9332,10 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -9320,22 +9349,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575380E6-B55F-496A-808C-63CA2B32787B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F07AC8-A928-401C-B21C-3059F3A014E8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -9096,8 +9096,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -9122,6 +9122,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9211,6 +9212,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -9349,7 +9355,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F07AC8-A928-401C-B21C-3059F3A014E8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9597F0D8-E265-4D16-8527-9D64C10AF5D3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C66A08F-BFA7-417B-920D-5B4656C76687}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F49C5B9C-4F40-46A4-B9A5-4335E3D9ABAE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="735">
   <si>
     <t>knr</t>
   </si>
@@ -2217,13 +2223,31 @@
   </si>
   <si>
     <t>Snåase - Snåsa</t>
+  </si>
+  <si>
+    <t>0-564</t>
+  </si>
+  <si>
+    <t>knr 2024</t>
+  </si>
+  <si>
+    <t>Kommune 2024</t>
+  </si>
+  <si>
+    <t>Indeks 2023</t>
+  </si>
+  <si>
+    <t>Klasse 2023</t>
+  </si>
+  <si>
+    <t>Intervall2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2251,8 +2275,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2265,8 +2302,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2397,12 +2440,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2413,22 +2505,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Ark1" xfId="2" xr:uid="{B3E860FA-1E87-4460-8F9D-EEBBFFBEAA80}"/>
     <cellStyle name="Normal_Ark1_2" xfId="1" xr:uid="{088ADBE3-96B8-4E57-8F1C-DD9C48C47D62}"/>
   </cellStyles>
   <dxfs count="7">
@@ -2682,26 +2791,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5ED600C-6F80-4368-A9FB-A67AD1DF9EC2}" name="Tabell1" displayName="Tabell1" ref="A1:E357" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
-  <autoFilter ref="A1:E357" xr:uid="{3018CA22-E830-4562-A59C-3ECEF7AFCA75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5ED600C-6F80-4368-A9FB-A67AD1DF9EC2}" name="Tabell1" displayName="Tabell1" ref="A1:J357" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A1:J357" xr:uid="{3018CA22-E830-4562-A59C-3ECEF7AFCA75}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E357">
     <sortCondition ref="A1:A357"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3B5C9ED6-DDB4-4123-82F3-FDF7E835D6B1}" name="knr" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{04DC01E7-7563-4434-AB14-FD5FBA879FED}" name="Kommune" dataDxfId="3" dataCellStyle="Normal_Ark1_2"/>
     <tableColumn id="3" xr3:uid="{64F34AAC-D9AB-4C9B-A44B-D7D8E8561036}" name="Indeks 2020" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{9D9D64C2-ED9C-46E5-9B0A-418E4FDDE584}" name="Klasse" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{D8349FA6-4DBA-48AB-919C-1B21781F756F}" name="Intervall" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C62A80E9-E336-48D0-9061-2DAADBC1B1D2}" name="knr 2024"/>
+    <tableColumn id="7" xr3:uid="{C428333B-0942-4A2C-8A13-52506FC0F012}" name="Kommune 2024"/>
+    <tableColumn id="8" xr3:uid="{EFD0041B-B787-44D2-8FB7-8E152C6C51CF}" name="Indeks 2023"/>
+    <tableColumn id="9" xr3:uid="{A698DC9A-59D4-4825-947D-B134CB818B18}" name="Klasse 2023"/>
+    <tableColumn id="10" xr3:uid="{3CD278D2-126C-4C4A-A8F1-3AFF040B141A}" name="Intervall2023"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2739,7 +2853,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2845,7 +2959,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2987,7 +3101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2995,20 +3109,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5E9789-F76B-4011-96B4-AC897B28298C}">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="J291" sqref="J291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3024,8 +3138,23 @@
       <c r="E1" s="3" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
@@ -3059,7 +3188,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -3076,7 +3205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
@@ -3093,7 +3222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -3110,7 +3239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
@@ -3127,7 +3256,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>371</v>
       </c>
@@ -3144,7 +3273,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>252</v>
       </c>
@@ -3161,7 +3290,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>160</v>
       </c>
@@ -3178,7 +3307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -3195,7 +3324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>91</v>
       </c>
@@ -3212,7 +3341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
@@ -3229,7 +3358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -3246,7 +3375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -3263,7 +3392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>226</v>
       </c>
@@ -3280,7 +3409,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>575</v>
       </c>
@@ -3297,7 +3426,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>583</v>
       </c>
@@ -3314,7 +3443,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>385</v>
       </c>
@@ -3331,7 +3460,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>594</v>
       </c>
@@ -3348,7 +3477,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>377</v>
       </c>
@@ -3365,7 +3494,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>206</v>
       </c>
@@ -3382,7 +3511,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>170</v>
       </c>
@@ -3399,7 +3528,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>710</v>
       </c>
@@ -3416,7 +3545,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>344</v>
       </c>
@@ -3433,7 +3562,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>172</v>
       </c>
@@ -3450,7 +3579,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>200</v>
       </c>
@@ -3467,7 +3596,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>151</v>
       </c>
@@ -3484,7 +3613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>567</v>
       </c>
@@ -3501,7 +3630,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>509</v>
       </c>
@@ -3518,7 +3647,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>302</v>
       </c>
@@ -3535,7 +3664,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>220</v>
       </c>
@@ -3552,7 +3681,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>258</v>
       </c>
@@ -3569,7 +3698,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>222</v>
       </c>
@@ -3586,7 +3715,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>375</v>
       </c>
@@ -3603,7 +3732,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>274</v>
       </c>
@@ -3620,7 +3749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>196</v>
       </c>
@@ -3637,7 +3766,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>228</v>
       </c>
@@ -3654,7 +3783,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>348</v>
       </c>
@@ -3671,7 +3800,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>393</v>
       </c>
@@ -3688,7 +3817,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>409</v>
       </c>
@@ -3705,7 +3834,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>389</v>
       </c>
@@ -3722,7 +3851,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>469</v>
       </c>
@@ -3739,7 +3868,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>483</v>
       </c>
@@ -3756,7 +3885,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>363</v>
       </c>
@@ -3773,7 +3902,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>431</v>
       </c>
@@ -3790,7 +3919,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>646</v>
       </c>
@@ -3807,7 +3936,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>612</v>
       </c>
@@ -3824,7 +3953,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -3841,7 +3970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>501</v>
       </c>
@@ -3858,7 +3987,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>340</v>
       </c>
@@ -3875,7 +4004,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>137</v>
       </c>
@@ -3892,7 +4021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>278</v>
       </c>
@@ -3909,7 +4038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>672</v>
       </c>
@@ -3926,7 +4055,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>598</v>
       </c>
@@ -3943,7 +4072,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>407</v>
       </c>
@@ -3960,7 +4089,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>690</v>
       </c>
@@ -3977,7 +4106,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>696</v>
       </c>
@@ -3994,7 +4123,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>636</v>
       </c>
@@ -4011,7 +4140,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>316</v>
       </c>
@@ -4028,7 +4157,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>505</v>
       </c>
@@ -4045,7 +4174,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>260</v>
       </c>
@@ -4062,7 +4191,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>624</v>
       </c>
@@ -4079,7 +4208,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>648</v>
       </c>
@@ -4096,7 +4225,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>670</v>
       </c>
@@ -4113,7 +4242,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>610</v>
       </c>
@@ -4130,7 +4259,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>497</v>
       </c>
@@ -4147,7 +4276,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>230</v>
       </c>
@@ -4164,7 +4293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>702</v>
       </c>
@@ -4181,7 +4310,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>708</v>
       </c>
@@ -4198,7 +4327,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>706</v>
       </c>
@@ -4215,7 +4344,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>614</v>
       </c>
@@ -4232,7 +4361,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>626</v>
       </c>
@@ -4249,7 +4378,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>654</v>
       </c>
@@ -4266,7 +4395,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>427</v>
       </c>
@@ -4283,7 +4412,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>294</v>
       </c>
@@ -4300,7 +4429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>520</v>
       </c>
@@ -4317,7 +4446,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>682</v>
       </c>
@@ -4334,7 +4463,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>522</v>
       </c>
@@ -4351,7 +4480,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>549</v>
       </c>
@@ -4368,7 +4497,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>694</v>
       </c>
@@ -4385,7 +4514,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>688</v>
       </c>
@@ -4402,7 +4531,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>571</v>
       </c>
@@ -4419,7 +4548,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>373</v>
       </c>
@@ -4436,7 +4565,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>318</v>
       </c>
@@ -4453,7 +4582,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>421</v>
       </c>
@@ -4470,7 +4599,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>587</v>
       </c>
@@ -4487,7 +4616,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>447</v>
       </c>
@@ -4504,7 +4633,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>290</v>
       </c>
@@ -4521,7 +4650,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>579</v>
       </c>
@@ -4538,7 +4667,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>652</v>
       </c>
@@ -4555,7 +4684,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>684</v>
       </c>
@@ -4572,7 +4701,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>71</v>
       </c>
@@ -4589,7 +4718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>22</v>
       </c>
@@ -4606,7 +4735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>44</v>
       </c>
@@ -4623,7 +4752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>50</v>
       </c>
@@ -4640,7 +4769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
@@ -4657,7 +4786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>77</v>
       </c>
@@ -4674,7 +4803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>87</v>
       </c>
@@ -4691,7 +4820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>204</v>
       </c>
@@ -4708,7 +4837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>312</v>
       </c>
@@ -4725,7 +4854,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>184</v>
       </c>
@@ -4742,7 +4871,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>56</v>
       </c>
@@ -4759,7 +4888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>127</v>
       </c>
@@ -4776,7 +4905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>129</v>
       </c>
@@ -4793,7 +4922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>85</v>
       </c>
@@ -4810,7 +4939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>104</v>
       </c>
@@ -4827,7 +4956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>40</v>
       </c>
@@ -4844,7 +4973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>13</v>
       </c>
@@ -4861,7 +4990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>24</v>
       </c>
@@ -4878,7 +5007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>26</v>
       </c>
@@ -4895,7 +5024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>67</v>
       </c>
@@ -4912,7 +5041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -4929,7 +5058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>20</v>
       </c>
@@ -4946,7 +5075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>135</v>
       </c>
@@ -4963,7 +5092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>9</v>
       </c>
@@ -4980,7 +5109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>99</v>
       </c>
@@ -4997,7 +5126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -5031,7 +5160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>34</v>
       </c>
@@ -5048,7 +5177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>38</v>
       </c>
@@ -5065,7 +5194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
@@ -5082,7 +5211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>101</v>
       </c>
@@ -5099,7 +5228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>79</v>
       </c>
@@ -5116,7 +5245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>89</v>
       </c>
@@ -5133,7 +5262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>202</v>
       </c>
@@ -5150,7 +5279,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>93</v>
       </c>
@@ -5167,7 +5296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>399</v>
       </c>
@@ -5184,7 +5313,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
@@ -5201,7 +5330,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>280</v>
       </c>
@@ -5218,7 +5347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>403</v>
       </c>
@@ -5235,7 +5364,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>324</v>
       </c>
@@ -5252,7 +5381,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>381</v>
       </c>
@@ -5269,7 +5398,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>310</v>
       </c>
@@ -5286,7 +5415,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>359</v>
       </c>
@@ -5303,7 +5432,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>111</v>
       </c>
@@ -5320,7 +5449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>65</v>
       </c>
@@ -5337,7 +5466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>36</v>
       </c>
@@ -5354,7 +5483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>246</v>
       </c>
@@ -5371,7 +5500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>471</v>
       </c>
@@ -5388,7 +5517,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>561</v>
       </c>
@@ -5405,7 +5534,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>131</v>
       </c>
@@ -5422,7 +5551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -5439,7 +5568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>133</v>
       </c>
@@ -5456,7 +5585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>52</v>
       </c>
@@ -5473,7 +5602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>102</v>
       </c>
@@ -5490,7 +5619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>113</v>
       </c>
@@ -5507,7 +5636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
@@ -5524,7 +5653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>139</v>
       </c>
@@ -5541,7 +5670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>105</v>
       </c>
@@ -5558,7 +5687,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>218</v>
       </c>
@@ -5575,7 +5704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>155</v>
       </c>
@@ -5592,7 +5721,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>238</v>
       </c>
@@ -5609,7 +5738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>304</v>
       </c>
@@ -5626,7 +5755,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>306</v>
       </c>
@@ -5643,7 +5772,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>300</v>
       </c>
@@ -5660,7 +5789,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>153</v>
       </c>
@@ -5677,7 +5806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>411</v>
       </c>
@@ -5694,7 +5823,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>357</v>
       </c>
@@ -5711,7 +5840,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>535</v>
       </c>
@@ -5728,7 +5857,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>620</v>
       </c>
@@ -5745,7 +5874,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>666</v>
       </c>
@@ -5762,7 +5891,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>541</v>
       </c>
@@ -5779,7 +5908,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>350</v>
       </c>
@@ -5796,7 +5925,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>477</v>
       </c>
@@ -5813,7 +5942,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>600</v>
       </c>
@@ -5830,7 +5959,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>485</v>
       </c>
@@ -5847,7 +5976,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>488</v>
       </c>
@@ -5864,7 +5993,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>577</v>
       </c>
@@ -5881,7 +6010,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>528</v>
       </c>
@@ -5898,7 +6027,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>516</v>
       </c>
@@ -5915,7 +6044,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>405</v>
       </c>
@@ -5932,7 +6061,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>354</v>
       </c>
@@ -5949,7 +6078,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>365</v>
       </c>
@@ -5966,7 +6095,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>383</v>
       </c>
@@ -5983,7 +6112,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>330</v>
       </c>
@@ -6000,7 +6129,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>244</v>
       </c>
@@ -6017,7 +6146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>268</v>
       </c>
@@ -6034,7 +6163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>182</v>
       </c>
@@ -6051,7 +6180,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>143</v>
       </c>
@@ -6068,7 +6197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>123</v>
       </c>
@@ -6085,7 +6214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>248</v>
       </c>
@@ -6102,7 +6231,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>262</v>
       </c>
@@ -6119,7 +6248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>473</v>
       </c>
@@ -6136,7 +6265,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>451</v>
       </c>
@@ -6153,7 +6282,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>276</v>
       </c>
@@ -6170,7 +6299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>439</v>
       </c>
@@ -6187,7 +6316,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>423</v>
       </c>
@@ -6204,7 +6333,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>545</v>
       </c>
@@ -6221,7 +6350,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>48</v>
       </c>
@@ -6238,7 +6367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>81</v>
       </c>
@@ -6255,7 +6384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>46</v>
       </c>
@@ -6272,7 +6401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>59</v>
       </c>
@@ -6289,7 +6418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>69</v>
       </c>
@@ -6306,7 +6435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>63</v>
       </c>
@@ -6323,7 +6452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>73</v>
       </c>
@@ -6340,7 +6469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>164</v>
       </c>
@@ -6357,7 +6486,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>83</v>
       </c>
@@ -6374,7 +6503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>194</v>
       </c>
@@ -6391,7 +6520,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>145</v>
       </c>
@@ -6408,7 +6537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>186</v>
       </c>
@@ -6425,7 +6554,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>334</v>
       </c>
@@ -6442,7 +6571,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>232</v>
       </c>
@@ -6459,7 +6588,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>210</v>
       </c>
@@ -6476,7 +6605,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>425</v>
       </c>
@@ -6493,7 +6622,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>457</v>
       </c>
@@ -6510,7 +6639,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>367</v>
       </c>
@@ -6527,7 +6656,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>441</v>
       </c>
@@ -6544,7 +6673,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>518</v>
       </c>
@@ -6561,7 +6690,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>602</v>
       </c>
@@ -6578,7 +6707,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>563</v>
       </c>
@@ -6595,7 +6724,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>537</v>
       </c>
@@ -6612,7 +6741,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>266</v>
       </c>
@@ -6629,7 +6758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>115</v>
       </c>
@@ -6646,7 +6775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>125</v>
       </c>
@@ -6663,7 +6792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>95</v>
       </c>
@@ -6680,7 +6809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>188</v>
       </c>
@@ -6697,7 +6826,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>264</v>
       </c>
@@ -6714,7 +6843,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>256</v>
       </c>
@@ -6731,7 +6860,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>320</v>
       </c>
@@ -6748,7 +6877,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>336</v>
       </c>
@@ -6765,7 +6894,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>236</v>
       </c>
@@ -6782,7 +6911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>214</v>
       </c>
@@ -6799,7 +6928,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>149</v>
       </c>
@@ -6816,7 +6945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>240</v>
       </c>
@@ -6833,7 +6962,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>481</v>
       </c>
@@ -6850,7 +6979,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>379</v>
       </c>
@@ -6867,7 +6996,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>254</v>
       </c>
@@ -6884,7 +7013,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>510</v>
       </c>
@@ -6901,7 +7030,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>634</v>
       </c>
@@ -6918,7 +7047,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>644</v>
       </c>
@@ -6935,7 +7064,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>168</v>
       </c>
@@ -6952,7 +7081,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>524</v>
       </c>
@@ -6969,7 +7098,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>270</v>
       </c>
@@ -6986,7 +7115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>459</v>
       </c>
@@ -7003,7 +7132,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>338</v>
       </c>
@@ -7020,7 +7149,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>449</v>
       </c>
@@ -7037,7 +7166,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>28</v>
       </c>
@@ -7054,7 +7183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>298</v>
       </c>
@@ -7071,7 +7200,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>443</v>
       </c>
@@ -7088,7 +7217,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>292</v>
       </c>
@@ -7105,7 +7234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>352</v>
       </c>
@@ -7122,7 +7251,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>180</v>
       </c>
@@ -7139,7 +7268,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>413</v>
       </c>
@@ -7156,7 +7285,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>507</v>
       </c>
@@ -7173,7 +7302,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>461</v>
       </c>
@@ -7190,7 +7319,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>453</v>
       </c>
@@ -7207,7 +7336,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>547</v>
       </c>
@@ -7224,7 +7353,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>530</v>
       </c>
@@ -7241,7 +7370,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>212</v>
       </c>
@@ -7258,7 +7387,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>288</v>
       </c>
@@ -7275,7 +7404,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>272</v>
       </c>
@@ -7292,7 +7421,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>166</v>
       </c>
@@ -7309,7 +7438,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>465</v>
       </c>
@@ -7326,7 +7455,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>157</v>
       </c>
@@ -7343,7 +7472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>107</v>
       </c>
@@ -7360,7 +7489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>342</v>
       </c>
@@ -7377,7 +7506,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>565</v>
       </c>
@@ -7394,7 +7523,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>234</v>
       </c>
@@ -7411,7 +7540,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>198</v>
       </c>
@@ -7428,7 +7557,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>346</v>
       </c>
@@ -7445,7 +7574,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>674</v>
       </c>
@@ -7462,7 +7591,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>551</v>
       </c>
@@ -7479,7 +7608,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>638</v>
       </c>
@@ -7496,7 +7625,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>704</v>
       </c>
@@ -7513,7 +7642,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>616</v>
       </c>
@@ -7530,7 +7659,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>532</v>
       </c>
@@ -7547,7 +7676,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>555</v>
       </c>
@@ -7564,7 +7693,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>332</v>
       </c>
@@ -7581,7 +7710,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>569</v>
       </c>
@@ -7598,7 +7727,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>514</v>
       </c>
@@ -7615,7 +7744,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>435</v>
       </c>
@@ -7632,7 +7761,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>495</v>
       </c>
@@ -7649,7 +7778,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>588</v>
       </c>
@@ -7666,7 +7795,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>499</v>
       </c>
@@ -7683,7 +7812,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>282</v>
       </c>
@@ -7700,7 +7829,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>630</v>
       </c>
@@ -7717,7 +7846,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>429</v>
       </c>
@@ -7734,7 +7863,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>387</v>
       </c>
@@ -7751,7 +7880,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>417</v>
       </c>
@@ -7768,7 +7897,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>30</v>
       </c>
@@ -7784,8 +7913,23 @@
       <c r="E281" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F281" s="15">
+        <v>5001</v>
+      </c>
+      <c r="G281" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H281" s="15">
+        <v>885</v>
+      </c>
+      <c r="I281" s="15">
+        <v>2</v>
+      </c>
+      <c r="J281" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>216</v>
       </c>
@@ -7801,8 +7945,23 @@
       <c r="E282" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F282" s="18">
+        <v>5006</v>
+      </c>
+      <c r="G282" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H282" s="18">
+        <v>721</v>
+      </c>
+      <c r="I282" s="18">
+        <v>4</v>
+      </c>
+      <c r="J282" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>250</v>
       </c>
@@ -7818,8 +7977,23 @@
       <c r="E283" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F283" s="15">
+        <v>5007</v>
+      </c>
+      <c r="G283" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="H283" s="15">
+        <v>690</v>
+      </c>
+      <c r="I283" s="15">
+        <v>4</v>
+      </c>
+      <c r="J283" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>557</v>
       </c>
@@ -7835,8 +8009,23 @@
       <c r="E284" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F284" s="18">
+        <v>5014</v>
+      </c>
+      <c r="G284" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="H284" s="18">
+        <v>531</v>
+      </c>
+      <c r="I284" s="18">
+        <v>6</v>
+      </c>
+      <c r="J284" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>642</v>
       </c>
@@ -7852,8 +8041,23 @@
       <c r="E285" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F285" s="15">
+        <v>5020</v>
+      </c>
+      <c r="G285" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="H285" s="15">
+        <v>459</v>
+      </c>
+      <c r="I285" s="15">
+        <v>6</v>
+      </c>
+      <c r="J285" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>326</v>
       </c>
@@ -7869,8 +8073,23 @@
       <c r="E286" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F286" s="18">
+        <v>5021</v>
+      </c>
+      <c r="G286" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H286" s="18">
+        <v>666</v>
+      </c>
+      <c r="I286" s="18">
+        <v>5</v>
+      </c>
+      <c r="J286" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>437</v>
       </c>
@@ -7886,8 +8105,23 @@
       <c r="E287" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F287" s="15">
+        <v>5022</v>
+      </c>
+      <c r="G287" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="H287" s="15">
+        <v>602</v>
+      </c>
+      <c r="I287" s="15">
+        <v>5</v>
+      </c>
+      <c r="J287" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>328</v>
       </c>
@@ -7903,8 +8137,23 @@
       <c r="E288" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F288" s="18">
+        <v>5025</v>
+      </c>
+      <c r="G288" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="H288" s="18">
+        <v>644</v>
+      </c>
+      <c r="I288" s="18">
+        <v>5</v>
+      </c>
+      <c r="J288" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>573</v>
       </c>
@@ -7920,8 +8169,23 @@
       <c r="E289" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F289" s="15">
+        <v>5026</v>
+      </c>
+      <c r="G289" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H289" s="15">
+        <v>524</v>
+      </c>
+      <c r="I289" s="15">
+        <v>6</v>
+      </c>
+      <c r="J289" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>322</v>
       </c>
@@ -7937,8 +8201,23 @@
       <c r="E290" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F290" s="18">
+        <v>5027</v>
+      </c>
+      <c r="G290" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H290" s="18">
+        <v>657</v>
+      </c>
+      <c r="I290" s="18">
+        <v>5</v>
+      </c>
+      <c r="J290" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>162</v>
       </c>
@@ -7954,8 +8233,23 @@
       <c r="E291" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F291" s="15">
+        <v>5028</v>
+      </c>
+      <c r="G291" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H291" s="15">
+        <v>776</v>
+      </c>
+      <c r="I291" s="15">
+        <v>3</v>
+      </c>
+      <c r="J291" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>192</v>
       </c>
@@ -7971,8 +8265,23 @@
       <c r="E292" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F292" s="18">
+        <v>5029</v>
+      </c>
+      <c r="G292" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H292" s="18">
+        <v>746</v>
+      </c>
+      <c r="I292" s="18">
+        <v>4</v>
+      </c>
+      <c r="J292" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>109</v>
       </c>
@@ -7988,8 +8297,23 @@
       <c r="E293" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F293" s="15">
+        <v>5031</v>
+      </c>
+      <c r="G293" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H293" s="15">
+        <v>807</v>
+      </c>
+      <c r="I293" s="15">
+        <v>3</v>
+      </c>
+      <c r="J293" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>308</v>
       </c>
@@ -8005,8 +8329,23 @@
       <c r="E294" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F294" s="18">
+        <v>5032</v>
+      </c>
+      <c r="G294" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H294" s="18">
+        <v>643</v>
+      </c>
+      <c r="I294" s="18">
+        <v>5</v>
+      </c>
+      <c r="J294" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>608</v>
       </c>
@@ -8022,8 +8361,23 @@
       <c r="E295" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F295" s="15">
+        <v>5033</v>
+      </c>
+      <c r="G295" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="H295" s="15">
+        <v>519</v>
+      </c>
+      <c r="I295" s="15">
+        <v>6</v>
+      </c>
+      <c r="J295" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>391</v>
       </c>
@@ -8039,8 +8393,23 @@
       <c r="E296" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F296" s="18">
+        <v>5034</v>
+      </c>
+      <c r="G296" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="H296" s="18">
+        <v>626</v>
+      </c>
+      <c r="I296" s="18">
+        <v>5</v>
+      </c>
+      <c r="J296" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>121</v>
       </c>
@@ -8056,8 +8425,23 @@
       <c r="E297" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F297" s="15">
+        <v>5035</v>
+      </c>
+      <c r="G297" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H297" s="15">
+        <v>802</v>
+      </c>
+      <c r="I297" s="15">
+        <v>3</v>
+      </c>
+      <c r="J297" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>296</v>
       </c>
@@ -8073,8 +8457,23 @@
       <c r="E298" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F298" s="18">
+        <v>5036</v>
+      </c>
+      <c r="G298" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H298" s="18">
+        <v>657</v>
+      </c>
+      <c r="I298" s="18">
+        <v>5</v>
+      </c>
+      <c r="J298" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>174</v>
       </c>
@@ -8090,8 +8489,23 @@
       <c r="E299" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F299" s="15">
+        <v>5037</v>
+      </c>
+      <c r="G299" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H299" s="15">
+        <v>752</v>
+      </c>
+      <c r="I299" s="15">
+        <v>4</v>
+      </c>
+      <c r="J299" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>178</v>
       </c>
@@ -8107,8 +8521,23 @@
       <c r="E300" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F300" s="18">
+        <v>5038</v>
+      </c>
+      <c r="G300" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H300" s="18">
+        <v>747</v>
+      </c>
+      <c r="I300" s="18">
+        <v>4</v>
+      </c>
+      <c r="J300" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>534</v>
       </c>
@@ -8124,8 +8553,23 @@
       <c r="E301" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F301" s="15">
+        <v>5041</v>
+      </c>
+      <c r="G301" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="H301" s="15">
+        <v>561</v>
+      </c>
+      <c r="I301" s="15">
+        <v>6</v>
+      </c>
+      <c r="J301" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>680</v>
       </c>
@@ -8141,8 +8585,23 @@
       <c r="E302" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F302" s="18">
+        <v>5042</v>
+      </c>
+      <c r="G302" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="H302" s="18">
+        <v>398</v>
+      </c>
+      <c r="I302" s="18">
+        <v>6</v>
+      </c>
+      <c r="J302" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>692</v>
       </c>
@@ -8158,8 +8617,23 @@
       <c r="E303" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F303" s="15">
+        <v>5043</v>
+      </c>
+      <c r="G303" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="H303" s="15">
+        <v>389</v>
+      </c>
+      <c r="I303" s="15">
+        <v>6</v>
+      </c>
+      <c r="J303" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>668</v>
       </c>
@@ -8175,8 +8649,23 @@
       <c r="E304" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F304" s="18">
+        <v>5044</v>
+      </c>
+      <c r="G304" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="H304" s="18">
+        <v>427</v>
+      </c>
+      <c r="I304" s="18">
+        <v>6</v>
+      </c>
+      <c r="J304" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>467</v>
       </c>
@@ -8192,8 +8681,23 @@
       <c r="E305" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F305" s="15">
+        <v>5045</v>
+      </c>
+      <c r="G305" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="H305" s="15">
+        <v>593</v>
+      </c>
+      <c r="I305" s="15">
+        <v>5</v>
+      </c>
+      <c r="J305" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>581</v>
       </c>
@@ -8209,8 +8713,23 @@
       <c r="E306" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F306" s="18">
+        <v>5046</v>
+      </c>
+      <c r="G306" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="H306" s="18">
+        <v>525</v>
+      </c>
+      <c r="I306" s="18">
+        <v>6</v>
+      </c>
+      <c r="J306" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>397</v>
       </c>
@@ -8226,8 +8745,23 @@
       <c r="E307" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F307" s="15">
+        <v>5047</v>
+      </c>
+      <c r="G307" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H307" s="15">
+        <v>611</v>
+      </c>
+      <c r="I307" s="15">
+        <v>5</v>
+      </c>
+      <c r="J307" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>640</v>
       </c>
@@ -8243,8 +8777,23 @@
       <c r="E308" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F308" s="18">
+        <v>5049</v>
+      </c>
+      <c r="G308" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="H308" s="18">
+        <v>475</v>
+      </c>
+      <c r="I308" s="18">
+        <v>6</v>
+      </c>
+      <c r="J308" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>686</v>
       </c>
@@ -8260,8 +8809,23 @@
       <c r="E309" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F309" s="15">
+        <v>5052</v>
+      </c>
+      <c r="G309" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="H309" s="15">
+        <v>386</v>
+      </c>
+      <c r="I309" s="15">
+        <v>6</v>
+      </c>
+      <c r="J309" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>284</v>
       </c>
@@ -8277,8 +8841,23 @@
       <c r="E310" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F310" s="18">
+        <v>5053</v>
+      </c>
+      <c r="G310" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H310" s="18">
+        <v>670</v>
+      </c>
+      <c r="I310" s="18">
+        <v>4</v>
+      </c>
+      <c r="J310" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>395</v>
       </c>
@@ -8294,8 +8873,23 @@
       <c r="E311" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F311" s="15">
+        <v>5054</v>
+      </c>
+      <c r="G311" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H311" s="15">
+        <v>621</v>
+      </c>
+      <c r="I311" s="15">
+        <v>5</v>
+      </c>
+      <c r="J311" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>433</v>
       </c>
@@ -8311,8 +8905,23 @@
       <c r="E312" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F312" s="18">
+        <v>5055</v>
+      </c>
+      <c r="G312" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H312" s="18">
+        <v>588</v>
+      </c>
+      <c r="I312" s="18">
+        <v>5</v>
+      </c>
+      <c r="J312" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>553</v>
       </c>
@@ -8328,8 +8937,23 @@
       <c r="E313" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F313" s="15">
+        <v>5056</v>
+      </c>
+      <c r="G313" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="H313" s="15">
+        <v>551</v>
+      </c>
+      <c r="I313" s="15">
+        <v>6</v>
+      </c>
+      <c r="J313" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>415</v>
       </c>
@@ -8345,8 +8969,23 @@
       <c r="E314" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F314" s="18">
+        <v>5057</v>
+      </c>
+      <c r="G314" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="H314" s="18">
+        <v>603</v>
+      </c>
+      <c r="I314" s="18">
+        <v>5</v>
+      </c>
+      <c r="J314" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>596</v>
       </c>
@@ -8362,8 +9001,23 @@
       <c r="E315" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F315" s="15">
+        <v>5058</v>
+      </c>
+      <c r="G315" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="H315" s="15">
+        <v>512</v>
+      </c>
+      <c r="I315" s="15">
+        <v>6</v>
+      </c>
+      <c r="J315" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>208</v>
       </c>
@@ -8379,8 +9033,23 @@
       <c r="E316" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F316" s="18">
+        <v>5059</v>
+      </c>
+      <c r="G316" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H316" s="18">
+        <v>728</v>
+      </c>
+      <c r="I316" s="18">
+        <v>4</v>
+      </c>
+      <c r="J316" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>493</v>
       </c>
@@ -8396,8 +9065,23 @@
       <c r="E317" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F317" s="15">
+        <v>5060</v>
+      </c>
+      <c r="G317" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="H317" s="15">
+        <v>581</v>
+      </c>
+      <c r="I317" s="15">
+        <v>5</v>
+      </c>
+      <c r="J317" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>445</v>
       </c>
@@ -8413,8 +9097,23 @@
       <c r="E318" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F318" s="18">
+        <v>5061</v>
+      </c>
+      <c r="G318" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="H318" s="18">
+        <v>607</v>
+      </c>
+      <c r="I318" s="18">
+        <v>5</v>
+      </c>
+      <c r="J318" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>117</v>
       </c>
@@ -8431,7 +9130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>190</v>
       </c>
@@ -8448,7 +9147,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>224</v>
       </c>
@@ -8465,7 +9164,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>585</v>
       </c>
@@ -8482,7 +9181,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>361</v>
       </c>
@@ -8499,7 +9198,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>286</v>
       </c>
@@ -8516,7 +9215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>455</v>
       </c>
@@ -8533,7 +9232,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>543</v>
       </c>
@@ -8550,7 +9249,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>656</v>
       </c>
@@ -8567,7 +9266,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>604</v>
       </c>
@@ -8584,7 +9283,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>592</v>
       </c>
@@ -8601,7 +9300,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>463</v>
       </c>
@@ -8618,7 +9317,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>512</v>
       </c>
@@ -8635,7 +9334,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>475</v>
       </c>
@@ -8652,7 +9351,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>401</v>
       </c>
@@ -8669,7 +9368,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>606</v>
       </c>
@@ -8686,7 +9385,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>419</v>
       </c>
@@ -8703,7 +9402,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>503</v>
       </c>
@@ -8720,7 +9419,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>650</v>
       </c>
@@ -8737,7 +9436,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>628</v>
       </c>
@@ -8754,7 +9453,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>590</v>
       </c>
@@ -8771,7 +9470,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>664</v>
       </c>
@@ -8788,7 +9487,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>490</v>
       </c>
@@ -8805,7 +9504,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>479</v>
       </c>
@@ -8822,7 +9521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>658</v>
       </c>
@@ -8839,7 +9538,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>622</v>
       </c>
@@ -8856,7 +9555,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>698</v>
       </c>
@@ -8873,7 +9572,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>700</v>
       </c>
@@ -8890,7 +9589,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>678</v>
       </c>
@@ -8907,7 +9606,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>559</v>
       </c>
@@ -8924,7 +9623,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>539</v>
       </c>
@@ -8941,7 +9640,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>486</v>
       </c>
@@ -8958,7 +9657,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>660</v>
       </c>
@@ -8975,7 +9674,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>676</v>
       </c>
@@ -8992,7 +9691,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>662</v>
       </c>
@@ -9009,7 +9708,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>618</v>
       </c>
@@ -9026,7 +9725,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>632</v>
       </c>
@@ -9043,7 +9742,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>526</v>
       </c>
@@ -9060,7 +9759,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="13" t="s">
         <v>369</v>
       </c>
@@ -9078,6 +9777,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -9096,6 +9796,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9333,19 +10046,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
   <ds:schemaRefs>
@@ -9355,15 +10055,33 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9597F0D8-E265-4D16-8527-9D64C10AF5D3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3DC619-F968-435D-92C1-F205B3338854}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9597F0D8-E265-4D16-8527-9D64C10AF5D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F49C5B9C-4F40-46A4-B9A5-4335E3D9ABAE}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F5FF19-73D6-47BD-BC50-76574DC05309}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
   </bookViews>
@@ -2237,10 +2237,10 @@
     <t>Indeks 2023</t>
   </si>
   <si>
-    <t>Klasse 2023</t>
-  </si>
-  <si>
     <t>Intervall2023</t>
+  </si>
+  <si>
+    <t>Klasse 2020</t>
   </si>
 </sst>
 </file>
@@ -2800,12 +2800,12 @@
     <tableColumn id="1" xr3:uid="{3B5C9ED6-DDB4-4123-82F3-FDF7E835D6B1}" name="knr" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{04DC01E7-7563-4434-AB14-FD5FBA879FED}" name="Kommune" dataDxfId="3" dataCellStyle="Normal_Ark1_2"/>
     <tableColumn id="3" xr3:uid="{64F34AAC-D9AB-4C9B-A44B-D7D8E8561036}" name="Indeks 2020" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9D9D64C2-ED9C-46E5-9B0A-418E4FDDE584}" name="Klasse" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9D9D64C2-ED9C-46E5-9B0A-418E4FDDE584}" name="Klasse 2020" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{D8349FA6-4DBA-48AB-919C-1B21781F756F}" name="Intervall" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{C62A80E9-E336-48D0-9061-2DAADBC1B1D2}" name="knr 2024"/>
     <tableColumn id="7" xr3:uid="{C428333B-0942-4A2C-8A13-52506FC0F012}" name="Kommune 2024"/>
     <tableColumn id="8" xr3:uid="{EFD0041B-B787-44D2-8FB7-8E152C6C51CF}" name="Indeks 2023"/>
-    <tableColumn id="9" xr3:uid="{A698DC9A-59D4-4825-947D-B134CB818B18}" name="Klasse 2023"/>
+    <tableColumn id="9" xr3:uid="{A698DC9A-59D4-4825-947D-B134CB818B18}" name="Klasse"/>
     <tableColumn id="10" xr3:uid="{3CD278D2-126C-4C4A-A8F1-3AFF040B141A}" name="Intervall2023"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3112,7 +3112,7 @@
   <dimension ref="A1:J357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3133,7 +3133,7 @@
         <v>720</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>719</v>
@@ -3148,10 +3148,10 @@
         <v>732</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>733</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -9787,15 +9787,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -9806,6 +9797,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10047,14 +10047,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3DC619-F968-435D-92C1-F205B3338854}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10062,6 +10054,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Indeks_klasser_20200226.xlsx
+++ b/Indeks_klasser_20200226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C66A08F-BFA7-417B-920D-5B4656C76687}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{E7542B98-28A8-4D26-B660-018E6A2B33FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F5FF19-73D6-47BD-BC50-76574DC05309}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0743A67D-64B7-4959-B48D-303F92FAD3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="735">
   <si>
     <t>knr</t>
   </si>
@@ -2217,13 +2223,31 @@
   </si>
   <si>
     <t>Snåase - Snåsa</t>
+  </si>
+  <si>
+    <t>0-564</t>
+  </si>
+  <si>
+    <t>knr 2024</t>
+  </si>
+  <si>
+    <t>Kommune 2024</t>
+  </si>
+  <si>
+    <t>Indeks 2023</t>
+  </si>
+  <si>
+    <t>Intervall2023</t>
+  </si>
+  <si>
+    <t>Klasse 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2251,8 +2275,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2265,8 +2302,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2397,12 +2440,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2413,22 +2505,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Ark1" xfId="2" xr:uid="{B3E860FA-1E87-4460-8F9D-EEBBFFBEAA80}"/>
     <cellStyle name="Normal_Ark1_2" xfId="1" xr:uid="{088ADBE3-96B8-4E57-8F1C-DD9C48C47D62}"/>
   </cellStyles>
   <dxfs count="7">
@@ -2682,26 +2791,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5ED600C-6F80-4368-A9FB-A67AD1DF9EC2}" name="Tabell1" displayName="Tabell1" ref="A1:E357" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
-  <autoFilter ref="A1:E357" xr:uid="{3018CA22-E830-4562-A59C-3ECEF7AFCA75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5ED600C-6F80-4368-A9FB-A67AD1DF9EC2}" name="Tabell1" displayName="Tabell1" ref="A1:J357" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A1:J357" xr:uid="{3018CA22-E830-4562-A59C-3ECEF7AFCA75}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E357">
     <sortCondition ref="A1:A357"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{3B5C9ED6-DDB4-4123-82F3-FDF7E835D6B1}" name="knr" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{04DC01E7-7563-4434-AB14-FD5FBA879FED}" name="Kommune" dataDxfId="3" dataCellStyle="Normal_Ark1_2"/>
     <tableColumn id="3" xr3:uid="{64F34AAC-D9AB-4C9B-A44B-D7D8E8561036}" name="Indeks 2020" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9D9D64C2-ED9C-46E5-9B0A-418E4FDDE584}" name="Klasse" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9D9D64C2-ED9C-46E5-9B0A-418E4FDDE584}" name="Klasse 2020" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{D8349FA6-4DBA-48AB-919C-1B21781F756F}" name="Intervall" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C62A80E9-E336-48D0-9061-2DAADBC1B1D2}" name="knr 2024"/>
+    <tableColumn id="7" xr3:uid="{C428333B-0942-4A2C-8A13-52506FC0F012}" name="Kommune 2024"/>
+    <tableColumn id="8" xr3:uid="{EFD0041B-B787-44D2-8FB7-8E152C6C51CF}" name="Indeks 2023"/>
+    <tableColumn id="9" xr3:uid="{A698DC9A-59D4-4825-947D-B134CB818B18}" name="Klasse"/>
+    <tableColumn id="10" xr3:uid="{3CD278D2-126C-4C4A-A8F1-3AFF040B141A}" name="Intervall2023"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2739,7 +2853,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2845,7 +2959,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2987,7 +3101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2995,20 +3109,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5E9789-F76B-4011-96B4-AC897B28298C}">
-  <dimension ref="A1:E357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="J291" sqref="J291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3019,13 +3133,28 @@
         <v>720</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3042,7 +3171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
@@ -3059,7 +3188,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -3076,7 +3205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>97</v>
       </c>
@@ -3093,7 +3222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -3110,7 +3239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
@@ -3127,7 +3256,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>371</v>
       </c>
@@ -3144,7 +3273,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>252</v>
       </c>
@@ -3161,7 +3290,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>160</v>
       </c>
@@ -3178,7 +3307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
@@ -3195,7 +3324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>91</v>
       </c>
@@ -3212,7 +3341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
@@ -3229,7 +3358,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -3246,7 +3375,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -3263,7 +3392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>226</v>
       </c>
@@ -3280,7 +3409,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>575</v>
       </c>
@@ -3297,7 +3426,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>583</v>
       </c>
@@ -3314,7 +3443,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>385</v>
       </c>
@@ -3331,7 +3460,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>594</v>
       </c>
@@ -3348,7 +3477,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>377</v>
       </c>
@@ -3365,7 +3494,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>206</v>
       </c>
@@ -3382,7 +3511,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>170</v>
       </c>
@@ -3399,7 +3528,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>710</v>
       </c>
@@ -3416,7 +3545,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>344</v>
       </c>
@@ -3433,7 +3562,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>172</v>
       </c>
@@ -3450,7 +3579,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>200</v>
       </c>
@@ -3467,7 +3596,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>151</v>
       </c>
@@ -3484,7 +3613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>567</v>
       </c>
@@ -3501,7 +3630,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>509</v>
       </c>
@@ -3518,7 +3647,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>302</v>
       </c>
@@ -3535,7 +3664,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>220</v>
       </c>
@@ -3552,7 +3681,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>258</v>
       </c>
@@ -3569,7 +3698,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>222</v>
       </c>
@@ -3586,7 +3715,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>375</v>
       </c>
@@ -3603,7 +3732,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>274</v>
       </c>
@@ -3620,7 +3749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>196</v>
       </c>
@@ -3637,7 +3766,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>228</v>
       </c>
@@ -3654,7 +3783,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>348</v>
       </c>
@@ -3671,7 +3800,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>393</v>
       </c>
@@ -3688,7 +3817,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>409</v>
       </c>
@@ -3705,7 +3834,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>389</v>
       </c>
@@ -3722,7 +3851,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>469</v>
       </c>
@@ -3739,7 +3868,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>483</v>
       </c>
@@ -3756,7 +3885,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>363</v>
       </c>
@@ -3773,7 +3902,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>431</v>
       </c>
@@ -3790,7 +3919,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>646</v>
       </c>
@@ -3807,7 +3936,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>612</v>
       </c>
@@ -3824,7 +3953,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>242</v>
       </c>
@@ -3841,7 +3970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>501</v>
       </c>
@@ -3858,7 +3987,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>340</v>
       </c>
@@ -3875,7 +4004,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>137</v>
       </c>
@@ -3892,7 +4021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>278</v>
       </c>
@@ -3909,7 +4038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>672</v>
       </c>
@@ -3926,7 +4055,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>598</v>
       </c>
@@ -3943,7 +4072,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>407</v>
       </c>
@@ -3960,7 +4089,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>690</v>
       </c>
@@ -3977,7 +4106,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>696</v>
       </c>
@@ -3994,7 +4123,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>636</v>
       </c>
@@ -4011,7 +4140,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>316</v>
       </c>
@@ -4028,7 +4157,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>505</v>
       </c>
@@ -4045,7 +4174,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>260</v>
       </c>
@@ -4062,7 +4191,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>624</v>
       </c>
@@ -4079,7 +4208,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>648</v>
       </c>
@@ -4096,7 +4225,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>670</v>
       </c>
@@ -4113,7 +4242,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>610</v>
       </c>
@@ -4130,7 +4259,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>497</v>
       </c>
@@ -4147,7 +4276,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>230</v>
       </c>
@@ -4164,7 +4293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>702</v>
       </c>
@@ -4181,7 +4310,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>708</v>
       </c>
@@ -4198,7 +4327,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>706</v>
       </c>
@@ -4215,7 +4344,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>614</v>
       </c>
@@ -4232,7 +4361,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>626</v>
       </c>
@@ -4249,7 +4378,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>654</v>
       </c>
@@ -4266,7 +4395,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>427</v>
       </c>
@@ -4283,7 +4412,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>294</v>
       </c>
@@ -4300,7 +4429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>520</v>
       </c>
@@ -4317,7 +4446,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>682</v>
       </c>
@@ -4334,7 +4463,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>522</v>
       </c>
@@ -4351,7 +4480,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>549</v>
       </c>
@@ -4368,7 +4497,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>694</v>
       </c>
@@ -4385,7 +4514,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>688</v>
       </c>
@@ -4402,7 +4531,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>571</v>
       </c>
@@ -4419,7 +4548,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>373</v>
       </c>
@@ -4436,7 +4565,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>318</v>
       </c>
@@ -4453,7 +4582,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>421</v>
       </c>
@@ -4470,7 +4599,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>587</v>
       </c>
@@ -4487,7 +4616,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>447</v>
       </c>
@@ -4504,7 +4633,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>290</v>
       </c>
@@ -4521,7 +4650,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>579</v>
       </c>
@@ -4538,7 +4667,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>652</v>
       </c>
@@ -4555,7 +4684,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>684</v>
       </c>
@@ -4572,7 +4701,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>71</v>
       </c>
@@ -4589,7 +4718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>22</v>
       </c>
@@ -4606,7 +4735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>44</v>
       </c>
@@ -4623,7 +4752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>50</v>
       </c>
@@ -4640,7 +4769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
@@ -4657,7 +4786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>77</v>
       </c>
@@ -4674,7 +4803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>87</v>
       </c>
@@ -4691,7 +4820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>204</v>
       </c>
@@ -4708,7 +4837,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>312</v>
       </c>
@@ -4725,7 +4854,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>184</v>
       </c>
@@ -4742,7 +4871,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>56</v>
       </c>
@@ -4759,7 +4888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>127</v>
       </c>
@@ -4776,7 +4905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>129</v>
       </c>
@@ -4793,7 +4922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>85</v>
       </c>
@@ -4810,7 +4939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>104</v>
       </c>
@@ -4827,7 +4956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>40</v>
       </c>
@@ -4844,7 +4973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>13</v>
       </c>
@@ -4861,7 +4990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>24</v>
       </c>
@@ -4878,7 +5007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>26</v>
       </c>
@@ -4895,7 +5024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>67</v>
       </c>
@@ -4912,7 +5041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -4929,7 +5058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>20</v>
       </c>
@@ -4946,7 +5075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>135</v>
       </c>
@@ -4963,7 +5092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>9</v>
       </c>
@@ -4980,7 +5109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>99</v>
       </c>
@@ -4997,7 +5126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -5031,7 +5160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>34</v>
       </c>
@@ -5048,7 +5177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>38</v>
       </c>
@@ -5065,7 +5194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
@@ -5082,7 +5211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>101</v>
       </c>
@@ -5099,7 +5228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>79</v>
       </c>
@@ -5116,7 +5245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>89</v>
       </c>
@@ -5133,7 +5262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>202</v>
       </c>
@@ -5150,7 +5279,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>93</v>
       </c>
@@ -5167,7 +5296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>399</v>
       </c>
@@ -5184,7 +5313,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
@@ -5201,7 +5330,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>280</v>
       </c>
@@ -5218,7 +5347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>403</v>
       </c>
@@ -5235,7 +5364,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>324</v>
       </c>
@@ -5252,7 +5381,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>381</v>
       </c>
@@ -5269,7 +5398,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>310</v>
       </c>
@@ -5286,7 +5415,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>359</v>
       </c>
@@ -5303,7 +5432,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>111</v>
       </c>
@@ -5320,7 +5449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>65</v>
       </c>
@@ -5337,7 +5466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>36</v>
       </c>
@@ -5354,7 +5483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>246</v>
       </c>
@@ -5371,7 +5500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>471</v>
       </c>
@@ -5388,7 +5517,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>561</v>
       </c>
@@ -5405,7 +5534,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>131</v>
       </c>
@@ -5422,7 +5551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>141</v>
       </c>
@@ -5439,7 +5568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>133</v>
       </c>
@@ -5456,7 +5585,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>52</v>
       </c>
@@ -5473,7 +5602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>102</v>
       </c>
@@ -5490,7 +5619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>113</v>
       </c>
@@ -5507,7 +5636,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
@@ -5524,7 +5653,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>139</v>
       </c>
@@ -5541,7 +5670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>105</v>
       </c>
@@ -5558,7 +5687,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>218</v>
       </c>
@@ -5575,7 +5704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>155</v>
       </c>
@@ -5592,7 +5721,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>238</v>
       </c>
@@ -5609,7 +5738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>304</v>
       </c>
@@ -5626,7 +5755,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>306</v>
       </c>
@@ -5643,7 +5772,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>300</v>
       </c>
@@ -5660,7 +5789,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>153</v>
       </c>
@@ -5677,7 +5806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>411</v>
       </c>
@@ -5694,7 +5823,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>357</v>
       </c>
@@ -5711,7 +5840,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>535</v>
       </c>
@@ -5728,7 +5857,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>620</v>
       </c>
@@ -5745,7 +5874,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>666</v>
       </c>
@@ -5762,7 +5891,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>541</v>
       </c>
@@ -5779,7 +5908,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>350</v>
       </c>
@@ -5796,7 +5925,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>477</v>
       </c>
@@ -5813,7 +5942,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>600</v>
       </c>
@@ -5830,7 +5959,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>485</v>
       </c>
@@ -5847,7 +5976,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>488</v>
       </c>
@@ -5864,7 +5993,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>577</v>
       </c>
@@ -5881,7 +6010,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>528</v>
       </c>
@@ -5898,7 +6027,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>516</v>
       </c>
@@ -5915,7 +6044,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>405</v>
       </c>
@@ -5932,7 +6061,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>354</v>
       </c>
@@ -5949,7 +6078,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>365</v>
       </c>
@@ -5966,7 +6095,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>383</v>
       </c>
@@ -5983,7 +6112,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>330</v>
       </c>
@@ -6000,7 +6129,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>244</v>
       </c>
@@ -6017,7 +6146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>268</v>
       </c>
@@ -6034,7 +6163,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>182</v>
       </c>
@@ -6051,7 +6180,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>143</v>
       </c>
@@ -6068,7 +6197,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>123</v>
       </c>
@@ -6085,7 +6214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>248</v>
       </c>
@@ -6102,7 +6231,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>262</v>
       </c>
@@ -6119,7 +6248,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>473</v>
       </c>
@@ -6136,7 +6265,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>451</v>
       </c>
@@ -6153,7 +6282,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>276</v>
       </c>
@@ -6170,7 +6299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>439</v>
       </c>
@@ -6187,7 +6316,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>423</v>
       </c>
@@ -6204,7 +6333,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>545</v>
       </c>
@@ -6221,7 +6350,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>48</v>
       </c>
@@ -6238,7 +6367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>81</v>
       </c>
@@ -6255,7 +6384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>46</v>
       </c>
@@ -6272,7 +6401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>59</v>
       </c>
@@ -6289,7 +6418,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>69</v>
       </c>
@@ -6306,7 +6435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>63</v>
       </c>
@@ -6323,7 +6452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>73</v>
       </c>
@@ -6340,7 +6469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>164</v>
       </c>
@@ -6357,7 +6486,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>83</v>
       </c>
@@ -6374,7 +6503,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>194</v>
       </c>
@@ -6391,7 +6520,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>145</v>
       </c>
@@ -6408,7 +6537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>186</v>
       </c>
@@ -6425,7 +6554,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>334</v>
       </c>
@@ -6442,7 +6571,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>232</v>
       </c>
@@ -6459,7 +6588,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>210</v>
       </c>
@@ -6476,7 +6605,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>425</v>
       </c>
@@ -6493,7 +6622,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>457</v>
       </c>
@@ -6510,7 +6639,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>367</v>
       </c>
@@ -6527,7 +6656,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>441</v>
       </c>
@@ -6544,7 +6673,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>518</v>
       </c>
@@ -6561,7 +6690,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>602</v>
       </c>
@@ -6578,7 +6707,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>563</v>
       </c>
@@ -6595,7 +6724,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>537</v>
       </c>
@@ -6612,7 +6741,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>266</v>
       </c>
@@ -6629,7 +6758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>115</v>
       </c>
@@ -6646,7 +6775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>125</v>
       </c>
@@ -6663,7 +6792,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>95</v>
       </c>
@@ -6680,7 +6809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>188</v>
       </c>
@@ -6697,7 +6826,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>264</v>
       </c>
@@ -6714,7 +6843,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>256</v>
       </c>
@@ -6731,7 +6860,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>320</v>
       </c>
@@ -6748,7 +6877,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>336</v>
       </c>
@@ -6765,7 +6894,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>236</v>
       </c>
@@ -6782,7 +6911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>214</v>
       </c>
@@ -6799,7 +6928,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>149</v>
       </c>
@@ -6816,7 +6945,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>240</v>
       </c>
@@ -6833,7 +6962,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>481</v>
       </c>
@@ -6850,7 +6979,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>379</v>
       </c>
@@ -6867,7 +6996,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>254</v>
       </c>
@@ -6884,7 +7013,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>510</v>
       </c>
@@ -6901,7 +7030,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>634</v>
       </c>
@@ -6918,7 +7047,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>644</v>
       </c>
@@ -6935,7 +7064,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>168</v>
       </c>
@@ -6952,7 +7081,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>524</v>
       </c>
@@ -6969,7 +7098,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>270</v>
       </c>
@@ -6986,7 +7115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>459</v>
       </c>
@@ -7003,7 +7132,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>338</v>
       </c>
@@ -7020,7 +7149,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>449</v>
       </c>
@@ -7037,7 +7166,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>28</v>
       </c>
@@ -7054,7 +7183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>298</v>
       </c>
@@ -7071,7 +7200,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>443</v>
       </c>
@@ -7088,7 +7217,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>292</v>
       </c>
@@ -7105,7 +7234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>352</v>
       </c>
@@ -7122,7 +7251,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>180</v>
       </c>
@@ -7139,7 +7268,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>413</v>
       </c>
@@ -7156,7 +7285,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>507</v>
       </c>
@@ -7173,7 +7302,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>461</v>
       </c>
@@ -7190,7 +7319,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>453</v>
       </c>
@@ -7207,7 +7336,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>547</v>
       </c>
@@ -7224,7 +7353,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>530</v>
       </c>
@@ -7241,7 +7370,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>212</v>
       </c>
@@ -7258,7 +7387,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>288</v>
       </c>
@@ -7275,7 +7404,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>272</v>
       </c>
@@ -7292,7 +7421,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>166</v>
       </c>
@@ -7309,7 +7438,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>465</v>
       </c>
@@ -7326,7 +7455,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>157</v>
       </c>
@@ -7343,7 +7472,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>107</v>
       </c>
@@ -7360,7 +7489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>342</v>
       </c>
@@ -7377,7 +7506,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>565</v>
       </c>
@@ -7394,7 +7523,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>234</v>
       </c>
@@ -7411,7 +7540,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>198</v>
       </c>
@@ -7428,7 +7557,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>346</v>
       </c>
@@ -7445,7 +7574,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>674</v>
       </c>
@@ -7462,7 +7591,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>551</v>
       </c>
@@ -7479,7 +7608,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>638</v>
       </c>
@@ -7496,7 +7625,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>704</v>
       </c>
@@ -7513,7 +7642,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>616</v>
       </c>
@@ -7530,7 +7659,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>532</v>
       </c>
@@ -7547,7 +7676,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>555</v>
       </c>
@@ -7564,7 +7693,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>332</v>
       </c>
@@ -7581,7 +7710,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>569</v>
       </c>
@@ -7598,7 +7727,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>514</v>
       </c>
@@ -7615,7 +7744,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>435</v>
       </c>
@@ -7632,7 +7761,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>495</v>
       </c>
@@ -7649,7 +7778,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>588</v>
       </c>
@@ -7666,7 +7795,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>499</v>
       </c>
@@ -7683,7 +7812,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>282</v>
       </c>
@@ -7700,7 +7829,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>630</v>
       </c>
@@ -7717,7 +7846,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>429</v>
       </c>
@@ -7734,7 +7863,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>387</v>
       </c>
@@ -7751,7 +7880,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>417</v>
       </c>
@@ -7768,7 +7897,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>30</v>
       </c>
@@ -7784,8 +7913,23 @@
       <c r="E281" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F281" s="15">
+        <v>5001</v>
+      </c>
+      <c r="G281" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H281" s="15">
+        <v>885</v>
+      </c>
+      <c r="I281" s="15">
+        <v>2</v>
+      </c>
+      <c r="J281" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>216</v>
       </c>
@@ -7801,8 +7945,23 @@
       <c r="E282" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F282" s="18">
+        <v>5006</v>
+      </c>
+      <c r="G282" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H282" s="18">
+        <v>721</v>
+      </c>
+      <c r="I282" s="18">
+        <v>4</v>
+      </c>
+      <c r="J282" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>250</v>
       </c>
@@ -7818,8 +7977,23 @@
       <c r="E283" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F283" s="15">
+        <v>5007</v>
+      </c>
+      <c r="G283" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="H283" s="15">
+        <v>690</v>
+      </c>
+      <c r="I283" s="15">
+        <v>4</v>
+      </c>
+      <c r="J283" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>557</v>
       </c>
@@ -7835,8 +8009,23 @@
       <c r="E284" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F284" s="18">
+        <v>5014</v>
+      </c>
+      <c r="G284" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="H284" s="18">
+        <v>531</v>
+      </c>
+      <c r="I284" s="18">
+        <v>6</v>
+      </c>
+      <c r="J284" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>642</v>
       </c>
@@ -7852,8 +8041,23 @@
       <c r="E285" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F285" s="15">
+        <v>5020</v>
+      </c>
+      <c r="G285" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="H285" s="15">
+        <v>459</v>
+      </c>
+      <c r="I285" s="15">
+        <v>6</v>
+      </c>
+      <c r="J285" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>326</v>
       </c>
@@ -7869,8 +8073,23 @@
       <c r="E286" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F286" s="18">
+        <v>5021</v>
+      </c>
+      <c r="G286" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H286" s="18">
+        <v>666</v>
+      </c>
+      <c r="I286" s="18">
+        <v>5</v>
+      </c>
+      <c r="J286" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>437</v>
       </c>
@@ -7886,8 +8105,23 @@
       <c r="E287" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F287" s="15">
+        <v>5022</v>
+      </c>
+      <c r="G287" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="H287" s="15">
+        <v>602</v>
+      </c>
+      <c r="I287" s="15">
+        <v>5</v>
+      </c>
+      <c r="J287" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>328</v>
       </c>
@@ -7903,8 +8137,23 @@
       <c r="E288" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F288" s="18">
+        <v>5025</v>
+      </c>
+      <c r="G288" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="H288" s="18">
+        <v>644</v>
+      </c>
+      <c r="I288" s="18">
+        <v>5</v>
+      </c>
+      <c r="J288" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>573</v>
       </c>
@@ -7920,8 +8169,23 @@
       <c r="E289" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F289" s="15">
+        <v>5026</v>
+      </c>
+      <c r="G289" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H289" s="15">
+        <v>524</v>
+      </c>
+      <c r="I289" s="15">
+        <v>6</v>
+      </c>
+      <c r="J289" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>322</v>
       </c>
@@ -7937,8 +8201,23 @@
       <c r="E290" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F290" s="18">
+        <v>5027</v>
+      </c>
+      <c r="G290" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H290" s="18">
+        <v>657</v>
+      </c>
+      <c r="I290" s="18">
+        <v>5</v>
+      </c>
+      <c r="J290" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>162</v>
       </c>
@@ -7954,8 +8233,23 @@
       <c r="E291" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F291" s="15">
+        <v>5028</v>
+      </c>
+      <c r="G291" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H291" s="15">
+        <v>776</v>
+      </c>
+      <c r="I291" s="15">
+        <v>3</v>
+      </c>
+      <c r="J291" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>192</v>
       </c>
@@ -7971,8 +8265,23 @@
       <c r="E292" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F292" s="18">
+        <v>5029</v>
+      </c>
+      <c r="G292" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H292" s="18">
+        <v>746</v>
+      </c>
+      <c r="I292" s="18">
+        <v>4</v>
+      </c>
+      <c r="J292" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>109</v>
       </c>
@@ -7988,8 +8297,23 @@
       <c r="E293" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F293" s="15">
+        <v>5031</v>
+      </c>
+      <c r="G293" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H293" s="15">
+        <v>807</v>
+      </c>
+      <c r="I293" s="15">
+        <v>3</v>
+      </c>
+      <c r="J293" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>308</v>
       </c>
@@ -8005,8 +8329,23 @@
       <c r="E294" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F294" s="18">
+        <v>5032</v>
+      </c>
+      <c r="G294" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H294" s="18">
+        <v>643</v>
+      </c>
+      <c r="I294" s="18">
+        <v>5</v>
+      </c>
+      <c r="J294" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>608</v>
       </c>
@@ -8022,8 +8361,23 @@
       <c r="E295" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F295" s="15">
+        <v>5033</v>
+      </c>
+      <c r="G295" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="H295" s="15">
+        <v>519</v>
+      </c>
+      <c r="I295" s="15">
+        <v>6</v>
+      </c>
+      <c r="J295" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>391</v>
       </c>
@@ -8039,8 +8393,23 @@
       <c r="E296" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F296" s="18">
+        <v>5034</v>
+      </c>
+      <c r="G296" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="H296" s="18">
+        <v>626</v>
+      </c>
+      <c r="I296" s="18">
+        <v>5</v>
+      </c>
+      <c r="J296" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>121</v>
       </c>
@@ -8056,8 +8425,23 @@
       <c r="E297" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F297" s="15">
+        <v>5035</v>
+      </c>
+      <c r="G297" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H297" s="15">
+        <v>802</v>
+      </c>
+      <c r="I297" s="15">
+        <v>3</v>
+      </c>
+      <c r="J297" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>296</v>
       </c>
@@ -8073,8 +8457,23 @@
       <c r="E298" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F298" s="18">
+        <v>5036</v>
+      </c>
+      <c r="G298" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H298" s="18">
+        <v>657</v>
+      </c>
+      <c r="I298" s="18">
+        <v>5</v>
+      </c>
+      <c r="J298" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>174</v>
       </c>
@@ -8090,8 +8489,23 @@
       <c r="E299" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F299" s="15">
+        <v>5037</v>
+      </c>
+      <c r="G299" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H299" s="15">
+        <v>752</v>
+      </c>
+      <c r="I299" s="15">
+        <v>4</v>
+      </c>
+      <c r="J299" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>178</v>
       </c>
@@ -8107,8 +8521,23 @@
       <c r="E300" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F300" s="18">
+        <v>5038</v>
+      </c>
+      <c r="G300" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H300" s="18">
+        <v>747</v>
+      </c>
+      <c r="I300" s="18">
+        <v>4</v>
+      </c>
+      <c r="J300" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>534</v>
       </c>
@@ -8124,8 +8553,23 @@
       <c r="E301" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F301" s="15">
+        <v>5041</v>
+      </c>
+      <c r="G301" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="H301" s="15">
+        <v>561</v>
+      </c>
+      <c r="I301" s="15">
+        <v>6</v>
+      </c>
+      <c r="J301" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>680</v>
       </c>
@@ -8141,8 +8585,23 @@
       <c r="E302" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F302" s="18">
+        <v>5042</v>
+      </c>
+      <c r="G302" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="H302" s="18">
+        <v>398</v>
+      </c>
+      <c r="I302" s="18">
+        <v>6</v>
+      </c>
+      <c r="J302" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>692</v>
       </c>
@@ -8158,8 +8617,23 @@
       <c r="E303" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F303" s="15">
+        <v>5043</v>
+      </c>
+      <c r="G303" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="H303" s="15">
+        <v>389</v>
+      </c>
+      <c r="I303" s="15">
+        <v>6</v>
+      </c>
+      <c r="J303" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>668</v>
       </c>
@@ -8175,8 +8649,23 @@
       <c r="E304" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F304" s="18">
+        <v>5044</v>
+      </c>
+      <c r="G304" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="H304" s="18">
+        <v>427</v>
+      </c>
+      <c r="I304" s="18">
+        <v>6</v>
+      </c>
+      <c r="J304" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>467</v>
       </c>
@@ -8192,8 +8681,23 @@
       <c r="E305" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F305" s="15">
+        <v>5045</v>
+      </c>
+      <c r="G305" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="H305" s="15">
+        <v>593</v>
+      </c>
+      <c r="I305" s="15">
+        <v>5</v>
+      </c>
+      <c r="J305" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>581</v>
       </c>
@@ -8209,8 +8713,23 @@
       <c r="E306" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F306" s="18">
+        <v>5046</v>
+      </c>
+      <c r="G306" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="H306" s="18">
+        <v>525</v>
+      </c>
+      <c r="I306" s="18">
+        <v>6</v>
+      </c>
+      <c r="J306" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>397</v>
       </c>
@@ -8226,8 +8745,23 @@
       <c r="E307" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F307" s="15">
+        <v>5047</v>
+      </c>
+      <c r="G307" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="H307" s="15">
+        <v>611</v>
+      </c>
+      <c r="I307" s="15">
+        <v>5</v>
+      </c>
+      <c r="J307" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>640</v>
       </c>
@@ -8243,8 +8777,23 @@
       <c r="E308" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F308" s="18">
+        <v>5049</v>
+      </c>
+      <c r="G308" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="H308" s="18">
+        <v>475</v>
+      </c>
+      <c r="I308" s="18">
+        <v>6</v>
+      </c>
+      <c r="J308" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>686</v>
       </c>
@@ -8260,8 +8809,23 @@
       <c r="E309" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F309" s="15">
+        <v>5052</v>
+      </c>
+      <c r="G309" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="H309" s="15">
+        <v>386</v>
+      </c>
+      <c r="I309" s="15">
+        <v>6</v>
+      </c>
+      <c r="J309" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>284</v>
       </c>
@@ -8277,8 +8841,23 @@
       <c r="E310" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F310" s="18">
+        <v>5053</v>
+      </c>
+      <c r="G310" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H310" s="18">
+        <v>670</v>
+      </c>
+      <c r="I310" s="18">
+        <v>4</v>
+      </c>
+      <c r="J310" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>395</v>
       </c>
@@ -8294,8 +8873,23 @@
       <c r="E311" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F311" s="15">
+        <v>5054</v>
+      </c>
+      <c r="G311" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H311" s="15">
+        <v>621</v>
+      </c>
+      <c r="I311" s="15">
+        <v>5</v>
+      </c>
+      <c r="J311" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>433</v>
       </c>
@@ -8311,8 +8905,23 @@
       <c r="E312" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F312" s="18">
+        <v>5055</v>
+      </c>
+      <c r="G312" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H312" s="18">
+        <v>588</v>
+      </c>
+      <c r="I312" s="18">
+        <v>5</v>
+      </c>
+      <c r="J312" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>553</v>
       </c>
@@ -8328,8 +8937,23 @@
       <c r="E313" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F313" s="15">
+        <v>5056</v>
+      </c>
+      <c r="G313" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="H313" s="15">
+        <v>551</v>
+      </c>
+      <c r="I313" s="15">
+        <v>6</v>
+      </c>
+      <c r="J313" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>415</v>
       </c>
@@ -8345,8 +8969,23 @@
       <c r="E314" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F314" s="18">
+        <v>5057</v>
+      </c>
+      <c r="G314" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="H314" s="18">
+        <v>603</v>
+      </c>
+      <c r="I314" s="18">
+        <v>5</v>
+      </c>
+      <c r="J314" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>596</v>
       </c>
@@ -8362,8 +9001,23 @@
       <c r="E315" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F315" s="15">
+        <v>5058</v>
+      </c>
+      <c r="G315" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="H315" s="15">
+        <v>512</v>
+      </c>
+      <c r="I315" s="15">
+        <v>6</v>
+      </c>
+      <c r="J315" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>208</v>
       </c>
@@ -8379,8 +9033,23 @@
       <c r="E316" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F316" s="18">
+        <v>5059</v>
+      </c>
+      <c r="G316" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H316" s="18">
+        <v>728</v>
+      </c>
+      <c r="I316" s="18">
+        <v>4</v>
+      </c>
+      <c r="J316" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>493</v>
       </c>
@@ -8396,8 +9065,23 @@
       <c r="E317" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F317" s="15">
+        <v>5060</v>
+      </c>
+      <c r="G317" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="H317" s="15">
+        <v>581</v>
+      </c>
+      <c r="I317" s="15">
+        <v>5</v>
+      </c>
+      <c r="J317" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>445</v>
       </c>
@@ -8413,8 +9097,23 @@
       <c r="E318" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F318" s="18">
+        <v>5061</v>
+      </c>
+      <c r="G318" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="H318" s="18">
+        <v>607</v>
+      </c>
+      <c r="I318" s="18">
+        <v>5</v>
+      </c>
+      <c r="J318" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>117</v>
       </c>
@@ -8431,7 +9130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>190</v>
       </c>
@@ -8448,7 +9147,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>224</v>
       </c>
@@ -8465,7 +9164,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>585</v>
       </c>
@@ -8482,7 +9181,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>361</v>
       </c>
@@ -8499,7 +9198,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>286</v>
       </c>
@@ -8516,7 +9215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>455</v>
       </c>
@@ -8533,7 +9232,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>543</v>
       </c>
@@ -8550,7 +9249,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>656</v>
       </c>
@@ -8567,7 +9266,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>604</v>
       </c>
@@ -8584,7 +9283,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>592</v>
       </c>
@@ -8601,7 +9300,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>463</v>
       </c>
@@ -8618,7 +9317,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>512</v>
       </c>
@@ -8635,7 +9334,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>475</v>
       </c>
@@ -8652,7 +9351,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>401</v>
       </c>
@@ -8669,7 +9368,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>606</v>
       </c>
@@ -8686,7 +9385,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>419</v>
       </c>
@@ -8703,7 +9402,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>503</v>
       </c>
@@ -8720,7 +9419,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>650</v>
       </c>
@@ -8737,7 +9436,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>628</v>
       </c>
@@ -8754,7 +9453,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>590</v>
       </c>
@@ -8771,7 +9470,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>664</v>
       </c>
@@ -8788,7 +9487,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>490</v>
       </c>
@@ -8805,7 +9504,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>479</v>
       </c>
@@ -8822,7 +9521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>658</v>
       </c>
@@ -8839,7 +9538,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>622</v>
       </c>
@@ -8856,7 +9555,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>698</v>
       </c>
@@ -8873,7 +9572,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>700</v>
       </c>
@@ -8890,7 +9589,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>678</v>
       </c>
@@ -8907,7 +9606,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>559</v>
       </c>
@@ -8924,7 +9623,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>539</v>
       </c>
@@ -8941,7 +9640,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>486</v>
       </c>
@@ -8958,7 +9657,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>660</v>
       </c>
@@ -8975,7 +9674,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>676</v>
       </c>
@@ -8992,7 +9691,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>662</v>
       </c>
@@ -9009,7 +9708,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>618</v>
       </c>
@@ -9026,7 +9725,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>632</v>
       </c>
@@ -9043,7 +9742,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>526</v>
       </c>
@@ -9060,7 +9759,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="13" t="s">
         <v>369</v>
       </c>
@@ -9078,6 +9777,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -9087,6 +9787,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9095,9 +9808,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="17" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="3db192e2b8bfccba086ae9dac43014e9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28af6c196815f27f167902d0c17178f2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -9123,6 +9836,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9216,6 +9930,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -9333,20 +10052,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3DC619-F968-435D-92C1-F205B3338854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D48DA4-2FA4-4DB1-AB34-56846A7E8B55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9354,16 +10072,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9597F0D8-E265-4D16-8527-9D64C10AF5D3}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3DC619-F968-435D-92C1-F205B3338854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF4A367-18B3-40C7-A340-D20A7BAE3D00}"/>
 </file>